--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="CellChapterProto" sheetId="1" r:id="rId1"/>
+    <sheet name="CellGenerateProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -341,7 +341,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,20 +366,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -902,19 +888,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,127 +918,118 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,25 +1048,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AA9C4-D538-43D1-8243-35DFDA5BBF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellGenerateProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -334,14 +327,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,151 +358,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,198 +385,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -787,253 +450,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,7 +466,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,13 +475,10 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,134 +488,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1220,146 +526,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1382,16 +558,48 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="宋体"/>
         <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1414,48 +622,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149998474074526"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1478,16 +654,146 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1508,11 +814,78 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1549,26 +922,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:O5" tableType="xml" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:O5" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:O5" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="C4:O5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="11">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="10">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" name="Music" uniqueName="3" dataDxfId="2"/>
-    <tableColumn id="6" name="InitSize" uniqueName="4" dataDxfId="3"/>
-    <tableColumn id="5" name="StartArea" uniqueName="5" dataDxfId="4"/>
-    <tableColumn id="3" name="EndArea" uniqueName="6" dataDxfId="5"/>
-    <tableColumn id="7" name="StopArea" uniqueName="7" dataDxfId="6"/>
-    <tableColumn id="12" name="SpecialRoomPro" uniqueName="8" dataDxfId="7"/>
-    <tableColumn id="11" name="SpecialRoom" uniqueName="9" dataDxfId="8"/>
-    <tableColumn id="8" name="StopAreaNum" uniqueName="10"/>
-    <tableColumn id="4" name="RandomArea" uniqueName="11" dataDxfId="9"/>
-    <tableColumn id="9" name="EnterLv" uniqueName="12" dataDxfId="10"/>
-    <tableColumn id="10" name="BossIcon" uniqueName="13" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="3" name="Music" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="4" name="InitSize" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="StartArea" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="6" name="EndArea" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="StopArea" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="8" name="SpecialRoomPro" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="9" name="SpecialRoom" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="10" name="StopAreaNum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="11" name="RandomArea" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="12" name="EnterLv" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="13" name="BossIcon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1855,19 +1228,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="8" width="16.75" customWidth="1"/>
@@ -1878,7 +1251,7 @@
     <col min="17" max="19" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="3" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="4" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1950,19 +1323,19 @@
       <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -1984,7 +1357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="5" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2037,7 +1410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -2056,16 +1429,16 @@
       <c r="H6" s="8">
         <v>100105</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>1006</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>3</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -2087,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="S6" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -2109,19 +1482,19 @@
       <c r="H7" s="8">
         <v>100206</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>1006</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>3</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="N7" s="8">
@@ -2140,10 +1513,10 @@
         <v>200</v>
       </c>
       <c r="S7" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -2162,19 +1535,19 @@
       <c r="H8" s="8">
         <v>100305</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>1006</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>3</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="8">
@@ -2193,10 +1566,10 @@
         <v>300</v>
       </c>
       <c r="S8" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -2215,19 +1588,19 @@
       <c r="H9" s="8">
         <v>100405</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>1006</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>50</v>
       </c>
       <c r="N9" s="8">
@@ -2246,10 +1619,10 @@
         <v>450</v>
       </c>
       <c r="S9" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -2268,19 +1641,19 @@
       <c r="H10" s="8">
         <v>100505</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>1006</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>3</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="N10" s="8">
@@ -2299,10 +1672,10 @@
         <v>550</v>
       </c>
       <c r="S10" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
@@ -2321,19 +1694,19 @@
       <c r="H11" s="8">
         <v>100605</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>1006</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>3</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="N11" s="8">
@@ -2352,10 +1725,10 @@
         <v>650</v>
       </c>
       <c r="S11" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
@@ -2374,16 +1747,16 @@
       <c r="H12" s="8">
         <v>100705</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>1006</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>3</v>
       </c>
       <c r="M12" s="7" t="s">
@@ -2405,10 +1778,10 @@
         <v>800</v>
       </c>
       <c r="S12" s="8">
-        <v>50601001</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>20001</v>
       </c>
@@ -2427,19 +1800,19 @@
       <c r="H13" s="8">
         <v>200005</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>1006</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>3</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="8">
@@ -2458,10 +1831,10 @@
         <v>950</v>
       </c>
       <c r="S13" s="8">
-        <v>50602001</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20002</v>
       </c>
@@ -2480,19 +1853,19 @@
       <c r="H14" s="8">
         <v>200105</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>1006</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>3</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="N14" s="8">
@@ -2511,10 +1884,10 @@
         <v>1100</v>
       </c>
       <c r="S14" s="8">
-        <v>50602001</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20003</v>
       </c>
@@ -2533,19 +1906,19 @@
       <c r="H15" s="8">
         <v>200205</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>1006</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>3</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N15" s="8">
@@ -2564,10 +1937,10 @@
         <v>1250</v>
       </c>
       <c r="S15" s="8">
-        <v>50602001</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20004</v>
       </c>
@@ -2586,19 +1959,19 @@
       <c r="H16" s="8">
         <v>200305</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>1006</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>3</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="N16" s="8">
@@ -2617,10 +1990,10 @@
         <v>1350</v>
       </c>
       <c r="S16" s="8">
-        <v>50602001</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20005</v>
       </c>
@@ -2639,19 +2012,19 @@
       <c r="H17" s="8">
         <v>200405</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>1006</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>3</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="11" t="s">
         <v>67</v>
       </c>
       <c r="N17" s="8">
@@ -2670,10 +2043,10 @@
         <v>1450</v>
       </c>
       <c r="S17" s="8">
-        <v>50602001</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>30001</v>
       </c>
@@ -2692,19 +2065,19 @@
       <c r="H18" s="8">
         <v>300005</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>1006</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>3</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>70</v>
       </c>
       <c r="N18" s="8">
@@ -2723,10 +2096,10 @@
         <v>1550</v>
       </c>
       <c r="S18" s="8">
-        <v>50603001</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30002</v>
       </c>
@@ -2745,19 +2118,19 @@
       <c r="H19" s="8">
         <v>300105</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>1006</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>3</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="11" t="s">
         <v>72</v>
       </c>
       <c r="N19" s="8">
@@ -2776,10 +2149,10 @@
         <v>1650</v>
       </c>
       <c r="S19" s="8">
-        <v>50603001</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30003</v>
       </c>
@@ -2798,19 +2171,19 @@
       <c r="H20" s="8">
         <v>300205</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>1006</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>3</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="11" t="s">
         <v>74</v>
       </c>
       <c r="N20" s="8">
@@ -2829,10 +2202,10 @@
         <v>1750</v>
       </c>
       <c r="S20" s="8">
-        <v>50603001</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30004</v>
       </c>
@@ -2851,19 +2224,19 @@
       <c r="H21" s="8">
         <v>300305</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>1006</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>3</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="11" t="s">
         <v>76</v>
       </c>
       <c r="N21" s="8">
@@ -2882,10 +2255,10 @@
         <v>1850</v>
       </c>
       <c r="S21" s="8">
-        <v>50603001</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30005</v>
       </c>
@@ -2904,19 +2277,19 @@
       <c r="H22" s="8">
         <v>300405</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>1006</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>3</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="11" t="s">
         <v>78</v>
       </c>
       <c r="N22" s="8">
@@ -2935,10 +2308,10 @@
         <v>1950</v>
       </c>
       <c r="S22" s="8">
-        <v>50603001</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>40001</v>
       </c>
@@ -2957,19 +2330,19 @@
       <c r="H23" s="8">
         <v>400005</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>1006</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <v>3</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="11" t="s">
         <v>81</v>
       </c>
       <c r="N23" s="8">
@@ -2988,10 +2361,10 @@
         <v>2050</v>
       </c>
       <c r="S23" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>40002</v>
       </c>
@@ -3010,19 +2383,19 @@
       <c r="H24" s="8">
         <v>400105</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>1006</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>3</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N24" s="8">
@@ -3041,10 +2414,10 @@
         <v>2150</v>
       </c>
       <c r="S24" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40003</v>
       </c>
@@ -3063,19 +2436,19 @@
       <c r="H25" s="8">
         <v>400205</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>1006</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <v>3</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>85</v>
       </c>
       <c r="N25" s="8">
@@ -3094,10 +2467,10 @@
         <v>2250</v>
       </c>
       <c r="S25" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40004</v>
       </c>
@@ -3116,19 +2489,19 @@
       <c r="H26" s="8">
         <v>400305</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>1006</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>3</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="11" t="s">
         <v>87</v>
       </c>
       <c r="N26" s="8">
@@ -3147,10 +2520,10 @@
         <v>2350</v>
       </c>
       <c r="S26" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40005</v>
       </c>
@@ -3169,19 +2542,19 @@
       <c r="H27" s="8">
         <v>400405</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>1006</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>3</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>89</v>
       </c>
       <c r="N27" s="8">
@@ -3200,10 +2573,10 @@
         <v>2450</v>
       </c>
       <c r="S27" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>50001</v>
       </c>
@@ -3222,16 +2595,16 @@
       <c r="H28" s="8">
         <v>1005</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>1006</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>3</v>
       </c>
       <c r="M28" s="7" t="s">
@@ -3253,10 +2626,10 @@
         <v>2550</v>
       </c>
       <c r="S28" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>50002</v>
       </c>
@@ -3275,19 +2648,19 @@
       <c r="H29" s="8">
         <v>1005</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>1006</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>3</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N29" s="8">
@@ -3306,10 +2679,10 @@
         <v>2650</v>
       </c>
       <c r="S29" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>50003</v>
       </c>
@@ -3328,19 +2701,19 @@
       <c r="H30" s="8">
         <v>1005</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>1006</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>3</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N30" s="8">
@@ -3359,10 +2732,10 @@
         <v>2750</v>
       </c>
       <c r="S30" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>50004</v>
       </c>
@@ -3381,19 +2754,19 @@
       <c r="H31" s="8">
         <v>1005</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>1006</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>3</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N31" s="8">
@@ -3412,10 +2785,10 @@
         <v>2850</v>
       </c>
       <c r="S31" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50005</v>
       </c>
@@ -3434,19 +2807,19 @@
       <c r="H32" s="8">
         <v>1005</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>1006</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>3</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N32" s="8">
@@ -3465,28 +2838,28 @@
         <v>2950</v>
       </c>
       <c r="S32" s="8">
-        <v>50604001</v>
-      </c>
-    </row>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
-    <row r="37" ht="20.1" customHeight="1"/>
-    <row r="38" ht="20.1" customHeight="1"/>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
-    <row r="43" ht="20.1" customHeight="1"/>
-    <row r="44" ht="20.1" customHeight="1"/>
-    <row r="45" ht="20.1" customHeight="1"/>
-    <row r="46" ht="20.1" customHeight="1"/>
-    <row r="47" ht="20.1" customHeight="1"/>
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,37 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AA9C4-D538-43D1-8243-35DFDA5BBF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="CellGenerateProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -150,22 +157,25 @@
     <t>3,4</t>
   </si>
   <si>
+    <t>0.5,0.05</t>
+  </si>
+  <si>
+    <t>101,201</t>
+  </si>
+  <si>
+    <t>100102,100103</t>
+  </si>
+  <si>
+    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
+  </si>
+  <si>
+    <t>洛兰岛深处</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
     <t>0.05,0.05</t>
-  </si>
-  <si>
-    <t>101,201</t>
-  </si>
-  <si>
-    <t>100102,100103</t>
-  </si>
-  <si>
-    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
-  </si>
-  <si>
-    <t>洛兰岛深处</t>
-  </si>
-  <si>
-    <t>3,5</t>
   </si>
   <si>
     <t>100202,100203,100204,100205</t>
@@ -327,8 +337,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +374,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +539,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -450,9 +790,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -488,22 +1070,134 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -526,16 +1220,146 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -558,48 +1382,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <name val="宋体"/>
         <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -622,16 +1414,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -654,146 +1478,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -814,78 +1508,11 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -922,26 +1549,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:O5" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="C4:O5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:O5" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="C4:O5"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="11">
+    <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="10">
+    <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="3" name="Music" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="4" name="InitSize" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="StartArea" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="6" name="EndArea" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="StopArea" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="8" name="SpecialRoomPro" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="9" name="SpecialRoom" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="10" name="StopAreaNum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="11" name="RandomArea" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="12" name="EnterLv" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="13" name="BossIcon" dataDxfId="0"/>
+    <tableColumn id="13" name="Music" uniqueName="3" dataDxfId="2"/>
+    <tableColumn id="6" name="InitSize" uniqueName="4" dataDxfId="3"/>
+    <tableColumn id="5" name="StartArea" uniqueName="5" dataDxfId="4"/>
+    <tableColumn id="3" name="EndArea" uniqueName="6" dataDxfId="5"/>
+    <tableColumn id="7" name="StopArea" uniqueName="7" dataDxfId="6"/>
+    <tableColumn id="12" name="SpecialRoomPro" uniqueName="8" dataDxfId="7"/>
+    <tableColumn id="11" name="SpecialRoom" uniqueName="9" dataDxfId="8"/>
+    <tableColumn id="8" name="StopAreaNum" uniqueName="10"/>
+    <tableColumn id="4" name="RandomArea" uniqueName="11" dataDxfId="9"/>
+    <tableColumn id="9" name="EnterLv" uniqueName="12" dataDxfId="10"/>
+    <tableColumn id="10" name="BossIcon" uniqueName="13" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1228,19 +1855,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="8" width="16.75" customWidth="1"/>
@@ -1251,7 +1878,7 @@
     <col min="17" max="19" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +2037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -1463,7 +2090,7 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="7" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -1486,7 +2113,7 @@
         <v>1006</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>40</v>
@@ -1495,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="8">
         <v>3</v>
@@ -1516,12 +2143,12 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="8" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1539,7 +2166,7 @@
         <v>1006</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>40</v>
@@ -1548,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="8">
         <v>5</v>
@@ -1569,18 +2196,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="9" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="8">
         <v>100401</v>
@@ -1592,7 +2219,7 @@
         <v>1006</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>40</v>
@@ -1601,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" s="8">
         <v>8</v>
@@ -1622,18 +2249,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="10" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="8">
         <v>100501</v>
@@ -1645,7 +2272,7 @@
         <v>1006</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>40</v>
@@ -1654,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="8">
         <v>10</v>
@@ -1675,18 +2302,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="11" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="8">
         <v>100601</v>
@@ -1698,7 +2325,7 @@
         <v>1006</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>40</v>
@@ -1707,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="8">
         <v>12</v>
@@ -1728,18 +2355,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="12" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8">
         <v>100701</v>
@@ -1751,7 +2378,7 @@
         <v>1006</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>40</v>
@@ -1760,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" s="8">
         <v>15</v>
@@ -1781,18 +2408,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="13" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C13" s="6">
         <v>20001</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="8">
         <v>200001</v>
@@ -1804,16 +2431,16 @@
         <v>1006</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="9">
         <v>3</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="8">
         <v>18</v>
@@ -1834,18 +2461,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="14" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C14" s="6">
         <v>20002</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="8">
         <v>200101</v>
@@ -1857,16 +2484,16 @@
         <v>1006</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" s="9">
         <v>3</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="8">
         <v>21</v>
@@ -1887,18 +2514,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="15" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C15" s="6">
         <v>20003</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="8">
         <v>200201</v>
@@ -1910,16 +2537,16 @@
         <v>1006</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="9">
         <v>3</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N15" s="8">
         <v>24</v>
@@ -1940,18 +2567,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="16" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C16" s="6">
         <v>20004</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8">
         <v>200301</v>
@@ -1963,16 +2590,16 @@
         <v>1006</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="9">
         <v>3</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" s="8">
         <v>26</v>
@@ -1993,18 +2620,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="17" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C17" s="6">
         <v>20005</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="8">
         <v>200401</v>
@@ -2016,16 +2643,16 @@
         <v>1006</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L17" s="9">
         <v>3</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N17" s="8">
         <v>28</v>
@@ -2046,18 +2673,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="18" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C18" s="6">
         <v>30001</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8">
         <v>300001</v>
@@ -2069,16 +2696,16 @@
         <v>1006</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L18" s="9">
         <v>3</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N18" s="8">
         <v>30</v>
@@ -2099,18 +2726,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="19" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C19" s="6">
         <v>30002</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="8">
         <v>300101</v>
@@ -2122,16 +2749,16 @@
         <v>1006</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L19" s="9">
         <v>3</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N19" s="8">
         <v>32</v>
@@ -2152,18 +2779,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="20" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C20" s="6">
         <v>30003</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="8">
         <v>300201</v>
@@ -2175,16 +2802,16 @@
         <v>1006</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L20" s="9">
         <v>3</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N20" s="8">
         <v>34</v>
@@ -2205,18 +2832,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="21" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C21" s="6">
         <v>30004</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="8">
         <v>300301</v>
@@ -2228,16 +2855,16 @@
         <v>1006</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" s="9">
         <v>3</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N21" s="8">
         <v>36</v>
@@ -2258,18 +2885,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="22" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C22" s="6">
         <v>30005</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="8">
         <v>300401</v>
@@ -2281,16 +2908,16 @@
         <v>1006</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" s="9">
         <v>3</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N22" s="8">
         <v>38</v>
@@ -2311,18 +2938,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="23" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C23" s="6">
         <v>40001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="8">
         <v>400001</v>
@@ -2334,16 +2961,16 @@
         <v>1006</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="9">
         <v>3</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N23" s="8">
         <v>40</v>
@@ -2364,18 +2991,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="24" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C24" s="6">
         <v>40002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="8">
         <v>400101</v>
@@ -2387,16 +3014,16 @@
         <v>1006</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="9">
         <v>3</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N24" s="8">
         <v>42</v>
@@ -2417,18 +3044,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="25" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C25" s="6">
         <v>40003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" s="8">
         <v>400201</v>
@@ -2440,16 +3067,16 @@
         <v>1006</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" s="9">
         <v>3</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N25" s="8">
         <v>44</v>
@@ -2470,18 +3097,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="26" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C26" s="6">
         <v>40004</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" s="8">
         <v>400301</v>
@@ -2493,16 +3120,16 @@
         <v>1006</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26" s="9">
         <v>3</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N26" s="8">
         <v>46</v>
@@ -2523,18 +3150,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="27" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C27" s="6">
         <v>40005</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" s="8">
         <v>400401</v>
@@ -2546,16 +3173,16 @@
         <v>1006</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" s="9">
         <v>3</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N27" s="8">
         <v>48</v>
@@ -2576,18 +3203,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="28" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C28" s="6">
         <v>50001</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="8">
         <v>1001</v>
@@ -2599,16 +3226,16 @@
         <v>1006</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L28" s="9">
         <v>3</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N28" s="8">
         <v>50</v>
@@ -2629,18 +3256,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="29" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C29" s="6">
         <v>50002</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" s="8">
         <v>1001</v>
@@ -2652,16 +3279,16 @@
         <v>1006</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L29" s="9">
         <v>3</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N29" s="8">
         <v>52</v>
@@ -2682,18 +3309,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="30" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C30" s="6">
         <v>50003</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" s="8">
         <v>1001</v>
@@ -2705,16 +3332,16 @@
         <v>1006</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L30" s="9">
         <v>3</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N30" s="8">
         <v>54</v>
@@ -2735,18 +3362,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="31" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C31" s="6">
         <v>50004</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" s="8">
         <v>1001</v>
@@ -2758,16 +3385,16 @@
         <v>1006</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L31" s="9">
         <v>3</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N31" s="8">
         <v>56</v>
@@ -2788,18 +3415,18 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="32" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C32" s="6">
         <v>50005</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" s="8">
         <v>1001</v>
@@ -2811,16 +3438,16 @@
         <v>1006</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L32" s="9">
         <v>3</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N32" s="8">
         <v>58</v>
@@ -2841,25 +3468,25 @@
         <v>600010201</v>
       </c>
     </row>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="36" ht="20.1" customHeight="1"/>
+    <row r="37" ht="20.1" customHeight="1"/>
+    <row r="38" ht="20.1" customHeight="1"/>
+    <row r="39" ht="20.1" customHeight="1"/>
+    <row r="40" ht="20.1" customHeight="1"/>
+    <row r="41" ht="20.1" customHeight="1"/>
+    <row r="42" ht="20.1" customHeight="1"/>
+    <row r="43" ht="20.1" customHeight="1"/>
+    <row r="44" ht="20.1" customHeight="1"/>
+    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="46" ht="20.1" customHeight="1"/>
+    <row r="47" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -157,7 +157,7 @@
     <t>3,4</t>
   </si>
   <si>
-    <t>0.5,0.05</t>
+    <t>0.9,0.05</t>
   </si>
   <si>
     <t>101,201</t>
@@ -1864,7 +1864,7 @@
   <dimension ref="C3:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -26,6 +26,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+public const int NONE = 0;
+        public const int InitScene = 1;
+        public const int LoginScene = 2;         //登录scene
+        public const int MainCityScene = 3;      //主城
+        public const int CellDungeon = 4;       //格子副本
+        public const int TeamDungeon = 5;        //组队副本
+        public const int PetTianTi = 6;         //宠物天梯
+        public const int BaoZang = 7;        //宝藏
+        public const int Tower = 8;             //爬塔
+        public const int LocalDungeon = 9;      //本地副本
+        public const int PetDungeon = 10;       //宠物闯关副本
+        public const int RandomTower = 11;       //通天塔
+        public const int Battle = 12;           //阵营战场
+        public const int TrialDungeon = 13;     //试炼副本
+        public const int MiJing = 14;        //野外地图 [秘境]
+        public const int Arena = 15;        //角斗场
+        public const int JiaYuan = 16;       //家园
+        public const int Union = 17;        //家族
+        public const int UnionRace = 18;    //家族争霸赛
+        public const int Solo = 19;         //竞技场单人
+        public const int TowerOfSeal = 20;  // 封印之塔
+        public const int Happy = 21;        //喜从天降
+        public const int RunRace = 22;      //奔跑比赛
+        public const int Demon = 23;        //恶魔活动
+        public const int PetMing = 24;      //宠物矿场
+        public const int SeasonTower = 25;  //赛季之塔
+        public const int OneChallenge = 26;    //1v1挑战
+        public const int PetMelee = 27;      //宠物乱斗
+        public const int DragonDungeon = 28;  //龙与地下城副本模式
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
@@ -38,11 +99,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>地图类型</t>
+  </si>
+  <si>
     <t>章节名称</t>
   </si>
   <si>
@@ -88,6 +152,9 @@
     <t>翻卡掉落ID</t>
   </si>
   <si>
+    <t>MapType</t>
+  </si>
+  <si>
     <t>ChapterName</t>
   </si>
   <si>
@@ -148,6 +215,9 @@
     <t>double[]</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>洛兰岛</t>
   </si>
   <si>
@@ -181,6 +251,9 @@
     <t>100202,100203,100204,100205</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>雷鸣森林</t>
   </si>
   <si>
@@ -196,6 +269,9 @@
     <t>100402,100403,100404,100406,100407</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>精灵遗迹</t>
   </si>
   <si>
@@ -208,6 +284,9 @@
     <t>100602,100603,100604,100606,100607</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>洛兰梦境</t>
   </si>
   <si>
@@ -223,6 +302,9 @@
     <t>200002,200003,200004</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>荒芜沙漠</t>
   </si>
   <si>
@@ -235,6 +317,9 @@
     <t>200202,200203,200204</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>古城废墟深处</t>
   </si>
   <si>
@@ -247,6 +332,9 @@
     <t>200402,200403,200404,200406</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>永歌密林</t>
   </si>
   <si>
@@ -262,6 +350,9 @@
     <t>300102,300103,300104,300106</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>巨石营地</t>
   </si>
   <si>
@@ -274,6 +365,9 @@
     <t>300302,300303,300304,300306</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>地下之城遗迹</t>
   </si>
   <si>
@@ -289,6 +383,9 @@
     <t>400002,400003,400004</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>冰雪森林中心</t>
   </si>
   <si>
@@ -301,6 +398,9 @@
     <t>400202,400203,400204</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>冰封之路</t>
   </si>
   <si>
@@ -313,6 +413,9 @@
     <t>400402,400403,400404,400406</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>第五章地图1</t>
   </si>
   <si>
@@ -325,13 +428,34 @@
     <t>第五章地图2</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>第五章地图3</t>
   </si>
   <si>
     <t>第五章地图4</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>第五章地图5</t>
+  </si>
+  <si>
+    <t>组队副本地图1</t>
+  </si>
+  <si>
+    <t>组队副本地图2</t>
+  </si>
+  <si>
+    <t>组队副本地图3</t>
+  </si>
+  <si>
+    <t>组队副本地图4</t>
+  </si>
+  <si>
+    <t>组队副本地图5</t>
   </si>
 </sst>
 </file>
@@ -344,7 +468,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +640,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1036,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1055,6 +1190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,26 +1687,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:O5" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="C4:O5"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:P5" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
+    <tableColumn id="14" name="MapType" uniqueName="2"/>
     <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" name="Music" uniqueName="3" dataDxfId="2"/>
-    <tableColumn id="6" name="InitSize" uniqueName="4" dataDxfId="3"/>
-    <tableColumn id="5" name="StartArea" uniqueName="5" dataDxfId="4"/>
-    <tableColumn id="3" name="EndArea" uniqueName="6" dataDxfId="5"/>
-    <tableColumn id="7" name="StopArea" uniqueName="7" dataDxfId="6"/>
-    <tableColumn id="12" name="SpecialRoomPro" uniqueName="8" dataDxfId="7"/>
-    <tableColumn id="11" name="SpecialRoom" uniqueName="9" dataDxfId="8"/>
-    <tableColumn id="8" name="StopAreaNum" uniqueName="10"/>
-    <tableColumn id="4" name="RandomArea" uniqueName="11" dataDxfId="9"/>
-    <tableColumn id="9" name="EnterLv" uniqueName="12" dataDxfId="10"/>
-    <tableColumn id="10" name="BossIcon" uniqueName="13" dataDxfId="11"/>
+    <tableColumn id="13" name="Music" uniqueName="4" dataDxfId="2"/>
+    <tableColumn id="6" name="InitSize" uniqueName="5" dataDxfId="3"/>
+    <tableColumn id="5" name="StartArea" uniqueName="6" dataDxfId="4"/>
+    <tableColumn id="3" name="EndArea" uniqueName="7" dataDxfId="5"/>
+    <tableColumn id="7" name="StopArea" uniqueName="8" dataDxfId="6"/>
+    <tableColumn id="12" name="SpecialRoomPro" uniqueName="9" dataDxfId="7"/>
+    <tableColumn id="11" name="SpecialRoom" uniqueName="10" dataDxfId="8"/>
+    <tableColumn id="8" name="StopAreaNum" uniqueName="11"/>
+    <tableColumn id="4" name="RandomArea" uniqueName="12" dataDxfId="9"/>
+    <tableColumn id="9" name="EnterLv" uniqueName="13" dataDxfId="10"/>
+    <tableColumn id="10" name="BossIcon" uniqueName="14" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1861,24 +2000,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:S47"/>
+  <dimension ref="C3:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
-    <col min="14" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="20.625" customWidth="1"/>
-    <col min="17" max="19" width="17.25" customWidth="1"/>
+    <col min="3" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="33.625" customWidth="1"/>
+    <col min="15" max="16" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="20" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1907,10 +2046,10 @@
         <v>8</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>10</v>
@@ -1930,1549 +2069,1914 @@
       <c r="S3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="T3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8">
         <v>100101</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>100105</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="10">
         <v>1006</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>70001910</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="8">
         <v>1418</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>100</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8">
+        <v>100201</v>
+      </c>
+      <c r="I7" s="8">
+        <v>100206</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8">
-        <v>100201</v>
-      </c>
-      <c r="H7" s="8">
-        <v>100206</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1006</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="M7" s="10">
+        <v>3</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3</v>
+      </c>
+      <c r="P7" s="8">
+        <v>70001920</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="9">
-        <v>3</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="8">
-        <v>3</v>
-      </c>
-      <c r="O7" s="8">
-        <v>70001920</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>1553</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>200</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>100301</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>100305</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="10">
         <v>1006</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="10">
+        <v>3</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="8">
+        <v>70001930</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="9">
-        <v>3</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="8">
-        <v>5</v>
-      </c>
-      <c r="O8" s="8">
-        <v>70001930</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>2015</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>300</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
+      <c r="D9" s="9">
+        <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="8">
+        <v>40</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="8">
         <v>100401</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>100405</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="10">
         <v>1006</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="8">
+        <v>8</v>
+      </c>
+      <c r="P9" s="8">
+        <v>70001940</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="9">
-        <v>3</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="8">
-        <v>8</v>
-      </c>
-      <c r="O9" s="8">
-        <v>70001940</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>2800</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>450</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="8">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="8">
         <v>100501</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>100505</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="10">
         <v>1006</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="10">
+        <v>3</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="8">
+        <v>10</v>
+      </c>
+      <c r="P10" s="8">
+        <v>70001950</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="9">
-        <v>3</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="8">
-        <v>10</v>
-      </c>
-      <c r="O10" s="8">
-        <v>70001950</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>3238</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>550</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>100601</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>100605</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="10">
         <v>1006</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="8">
+        <v>12</v>
+      </c>
+      <c r="P11" s="8">
+        <v>70001960</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="9">
-        <v>3</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="8">
-        <v>12</v>
-      </c>
-      <c r="O11" s="8">
-        <v>70001960</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>3763</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>650</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="8">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="8">
         <v>100701</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>100705</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="10">
         <v>1006</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="10">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="8">
+        <v>15</v>
+      </c>
+      <c r="P12" s="8">
+        <v>70001970</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="9">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="8">
-        <v>15</v>
-      </c>
-      <c r="O12" s="8">
-        <v>70001970</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>4550</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S12" s="8">
         <v>800</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C13" s="6">
         <v>20001</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
+      <c r="D13" s="9">
+        <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="8">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="8">
         <v>200001</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>200005</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="10">
         <v>1006</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="10">
+        <v>3</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="8">
+        <v>18</v>
+      </c>
+      <c r="P13" s="8">
+        <v>70002910</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="9">
-        <v>3</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="8">
-        <v>18</v>
-      </c>
-      <c r="O13" s="8">
-        <v>70002910</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>5600</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>950</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C14" s="6">
         <v>20002</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="8">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="8">
         <v>200101</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>200105</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="10">
         <v>1006</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="10">
+        <v>3</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="8">
+        <v>21</v>
+      </c>
+      <c r="P14" s="8">
+        <v>70002920</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="9">
-        <v>3</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="8">
-        <v>21</v>
-      </c>
-      <c r="O14" s="8">
-        <v>70002920</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>6825</v>
       </c>
-      <c r="R14" s="8">
+      <c r="S14" s="8">
         <v>1100</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C15" s="6">
         <v>20003</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>63</v>
+      <c r="D15" s="9">
+        <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="8">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="8">
         <v>200201</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>200205</v>
       </c>
-      <c r="I15" s="9">
+      <c r="J15" s="10">
         <v>1006</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="10">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="8">
+        <v>24</v>
+      </c>
+      <c r="P15" s="8">
+        <v>70002930</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="9">
-        <v>3</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="8">
-        <v>24</v>
-      </c>
-      <c r="O15" s="8">
-        <v>70002930</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>8138</v>
       </c>
-      <c r="R15" s="8">
+      <c r="S15" s="8">
         <v>1250</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C16" s="6">
         <v>20004</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="8">
+        <v>200301</v>
+      </c>
+      <c r="I16" s="8">
+        <v>200305</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="8">
-        <v>200301</v>
-      </c>
-      <c r="H16" s="8">
-        <v>200305</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1006</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="M16" s="10">
+        <v>3</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="8">
+        <v>26</v>
+      </c>
+      <c r="P16" s="8">
+        <v>70002940</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="9">
-        <v>3</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="8">
-        <v>26</v>
-      </c>
-      <c r="O16" s="8">
-        <v>70002940</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>9188</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>1350</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C17" s="6">
         <v>20005</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>67</v>
+      <c r="D17" s="9">
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="8">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="8">
         <v>200401</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>200405</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="10">
         <v>1006</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="10">
+        <v>3</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="8">
+        <v>28</v>
+      </c>
+      <c r="P17" s="8">
+        <v>70002950</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="9">
-        <v>3</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="8">
-        <v>28</v>
-      </c>
-      <c r="O17" s="8">
-        <v>70002950</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>10238</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>1450</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C18" s="6">
         <v>30001</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="8">
+        <v>40</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="8">
         <v>300001</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>300005</v>
       </c>
-      <c r="I18" s="9">
+      <c r="J18" s="10">
         <v>1006</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="10">
+        <v>3</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="8">
+        <v>30</v>
+      </c>
+      <c r="P18" s="8">
+        <v>70003910</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="9">
-        <v>3</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="8">
-        <v>30</v>
-      </c>
-      <c r="O18" s="8">
-        <v>70003910</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>11463</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S18" s="8">
         <v>1550</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C19" s="6">
         <v>30002</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
+      <c r="D19" s="9">
+        <v>10</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="8">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="8">
         <v>300101</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>300105</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="10">
         <v>1006</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="10">
+        <v>3</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="8">
+        <v>32</v>
+      </c>
+      <c r="P19" s="8">
+        <v>70003920</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="9">
-        <v>3</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="8">
-        <v>32</v>
-      </c>
-      <c r="O19" s="8">
-        <v>70003920</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <v>12863</v>
       </c>
-      <c r="R19" s="8">
+      <c r="S19" s="8">
         <v>1650</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C20" s="6">
         <v>30003</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="8">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="8">
         <v>300201</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>300205</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="10">
         <v>1006</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="10">
+        <v>3</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="8">
+        <v>34</v>
+      </c>
+      <c r="P20" s="8">
+        <v>70003930</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="9">
-        <v>3</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="8">
-        <v>34</v>
-      </c>
-      <c r="O20" s="8">
-        <v>70003930</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>14263</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>1750</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C21" s="6">
         <v>30004</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>76</v>
+      <c r="D21" s="9">
+        <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="8">
+        <v>40</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="8">
         <v>300301</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>300305</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="10">
         <v>1006</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="10">
+        <v>3</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="8">
+        <v>36</v>
+      </c>
+      <c r="P21" s="8">
+        <v>70003940</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="9">
-        <v>3</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" s="8">
-        <v>36</v>
-      </c>
-      <c r="O21" s="8">
-        <v>70003940</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>16013</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>1850</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C22" s="6">
         <v>30005</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="8">
+        <v>40</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="8">
         <v>300401</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>300405</v>
       </c>
-      <c r="I22" s="9">
+      <c r="J22" s="10">
         <v>1006</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="10">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="8">
+        <v>38</v>
+      </c>
+      <c r="P22" s="8">
+        <v>70003950</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="9">
-        <v>3</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="8">
-        <v>38</v>
-      </c>
-      <c r="O22" s="8">
-        <v>70003950</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="R22" s="8">
         <v>17763</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S22" s="8">
         <v>1950</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C23" s="6">
         <v>40001</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>80</v>
+      <c r="D23" s="9">
+        <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="8">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="8">
         <v>400001</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>400005</v>
       </c>
-      <c r="I23" s="9">
+      <c r="J23" s="10">
         <v>1006</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="10">
+        <v>3</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O23" s="8">
+        <v>40</v>
+      </c>
+      <c r="P23" s="8">
+        <v>70004910</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="9">
-        <v>3</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" s="8">
-        <v>40</v>
-      </c>
-      <c r="O23" s="8">
-        <v>70004910</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="8">
+      <c r="R23" s="8">
         <v>19775</v>
       </c>
-      <c r="R23" s="8">
+      <c r="S23" s="8">
         <v>2050</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C24" s="6">
         <v>40002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="8">
+        <v>40</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="8">
         <v>400101</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>400105</v>
       </c>
-      <c r="I24" s="9">
+      <c r="J24" s="10">
         <v>1006</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="10">
+        <v>3</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="8">
+        <v>42</v>
+      </c>
+      <c r="P24" s="8">
+        <v>70004920</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="9">
-        <v>3</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="8">
-        <v>42</v>
-      </c>
-      <c r="O24" s="8">
-        <v>70004920</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="8">
+      <c r="R24" s="8">
         <v>22050</v>
       </c>
-      <c r="R24" s="8">
+      <c r="S24" s="8">
         <v>2150</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C25" s="6">
         <v>40003</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>85</v>
+      <c r="D25" s="9">
+        <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="8">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="8">
         <v>400201</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>400205</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J25" s="10">
         <v>1006</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="10">
+        <v>3</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="8">
+        <v>44</v>
+      </c>
+      <c r="P25" s="8">
+        <v>70004930</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="9">
-        <v>3</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" s="8">
-        <v>44</v>
-      </c>
-      <c r="O25" s="8">
-        <v>70004930</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="8">
+      <c r="R25" s="8">
         <v>24325</v>
       </c>
-      <c r="R25" s="8">
+      <c r="S25" s="8">
         <v>2250</v>
       </c>
-      <c r="S25" s="8">
+      <c r="T25" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C26" s="6">
         <v>40004</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="8">
+        <v>40</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="8">
         <v>400301</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>400305</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="10">
         <v>1006</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="10">
+        <v>3</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="8">
+        <v>46</v>
+      </c>
+      <c r="P26" s="8">
+        <v>70004940</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="9">
-        <v>3</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" s="8">
-        <v>46</v>
-      </c>
-      <c r="O26" s="8">
-        <v>70004940</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="8">
+      <c r="R26" s="8">
         <v>27125</v>
       </c>
-      <c r="R26" s="8">
+      <c r="S26" s="8">
         <v>2350</v>
       </c>
-      <c r="S26" s="8">
+      <c r="T26" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C27" s="6">
         <v>40005</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>89</v>
+      <c r="D27" s="9">
+        <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="8">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="8">
         <v>400401</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>400405</v>
       </c>
-      <c r="I27" s="9">
+      <c r="J27" s="10">
         <v>1006</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="10">
+        <v>3</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="8">
+        <v>48</v>
+      </c>
+      <c r="P27" s="8">
+        <v>70004950</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="9">
-        <v>3</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="8">
-        <v>48</v>
-      </c>
-      <c r="O27" s="8">
-        <v>70004950</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="8">
+      <c r="R27" s="8">
         <v>29925</v>
       </c>
-      <c r="R27" s="8">
+      <c r="S27" s="8">
         <v>2450</v>
       </c>
-      <c r="S27" s="8">
+      <c r="T27" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C28" s="6">
         <v>50001</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1005</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="10">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" s="8">
         <v>50</v>
       </c>
-      <c r="G28" s="8">
-        <v>1001</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1005</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1006</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="P28" s="8">
+        <v>70002940</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="9">
-        <v>3</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28" s="8">
-        <v>50</v>
-      </c>
-      <c r="O28" s="8">
-        <v>70002940</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q28" s="8">
+      <c r="R28" s="8">
         <v>33163</v>
       </c>
-      <c r="R28" s="8">
+      <c r="S28" s="8">
         <v>2550</v>
       </c>
-      <c r="S28" s="8">
+      <c r="T28" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C29" s="6">
         <v>50002</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>94</v>
+      <c r="D29" s="9">
+        <v>15</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="8">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="8">
         <v>1001</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>1005</v>
       </c>
-      <c r="I29" s="9">
+      <c r="J29" s="10">
         <v>1006</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="10">
+        <v>3</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="8">
+        <v>52</v>
+      </c>
+      <c r="P29" s="8">
+        <v>70002950</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="9">
-        <v>3</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N29" s="8">
-        <v>52</v>
-      </c>
-      <c r="O29" s="8">
-        <v>70002950</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q29" s="8">
+      <c r="R29" s="8">
         <v>36838</v>
       </c>
-      <c r="R29" s="8">
+      <c r="S29" s="8">
         <v>2650</v>
       </c>
-      <c r="S29" s="8">
+      <c r="T29" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C30" s="6">
         <v>50003</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="8">
+        <v>40</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="8">
         <v>1001</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>1005</v>
       </c>
-      <c r="I30" s="9">
+      <c r="J30" s="10">
         <v>1006</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="10">
+        <v>3</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="8">
+        <v>54</v>
+      </c>
+      <c r="P30" s="8">
+        <v>70001910</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="9">
-        <v>3</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="8">
-        <v>54</v>
-      </c>
-      <c r="O30" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q30" s="8">
+      <c r="R30" s="8">
         <v>40513</v>
       </c>
-      <c r="R30" s="8">
+      <c r="S30" s="8">
         <v>2750</v>
       </c>
-      <c r="S30" s="8">
+      <c r="T30" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C31" s="6">
         <v>50004</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>96</v>
+      <c r="D31" s="9">
+        <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="8">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="8">
         <v>1001</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>1005</v>
       </c>
-      <c r="I31" s="9">
+      <c r="J31" s="10">
         <v>1006</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="10">
+        <v>3</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" s="8">
+        <v>56</v>
+      </c>
+      <c r="P31" s="8">
+        <v>70001920</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="9">
-        <v>3</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="8">
-        <v>56</v>
-      </c>
-      <c r="O31" s="8">
-        <v>70001920</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="8">
+      <c r="R31" s="8">
         <v>45063</v>
       </c>
-      <c r="R31" s="8">
+      <c r="S31" s="8">
         <v>2850</v>
       </c>
-      <c r="S31" s="8">
+      <c r="T31" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
       <c r="C32" s="6">
         <v>50005</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1005</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="10">
+        <v>3</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" s="8">
+        <v>58</v>
+      </c>
+      <c r="P32" s="8">
+        <v>70001930</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="8">
+        <v>49613</v>
+      </c>
+      <c r="S32" s="8">
+        <v>2950</v>
+      </c>
+      <c r="T32" s="8">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+      <c r="C33" s="6">
+        <v>1000001</v>
+      </c>
+      <c r="D33" s="9">
+        <v>28</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1005</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="10">
+        <v>3</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O33" s="8">
         <v>50</v>
       </c>
-      <c r="G32" s="8">
+      <c r="P33" s="8">
+        <v>70002940</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="8">
+        <v>33163</v>
+      </c>
+      <c r="S33" s="8">
+        <v>2550</v>
+      </c>
+      <c r="T33" s="8">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+      <c r="C34" s="6">
+        <v>1000002</v>
+      </c>
+      <c r="D34" s="9">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="8">
         <v>1001</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I34" s="8">
         <v>1005</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J34" s="10">
         <v>1006</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="10">
+        <v>3</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O34" s="8">
+        <v>52</v>
+      </c>
+      <c r="P34" s="8">
+        <v>70002950</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="R34" s="8">
+        <v>36838</v>
+      </c>
+      <c r="S34" s="8">
+        <v>2650</v>
+      </c>
+      <c r="T34" s="8">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+      <c r="C35" s="6">
+        <v>1000003</v>
+      </c>
+      <c r="D35" s="9">
+        <v>28</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1005</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" s="10">
         <v>3</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N32" s="8">
+      <c r="N35" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8">
+        <v>54</v>
+      </c>
+      <c r="P35" s="8">
+        <v>70001910</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" s="8">
+        <v>40513</v>
+      </c>
+      <c r="S35" s="8">
+        <v>2750</v>
+      </c>
+      <c r="T35" s="8">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+      <c r="C36" s="6">
+        <v>1000004</v>
+      </c>
+      <c r="D36" s="9">
+        <v>28</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1005</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" s="10">
+        <v>3</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8">
+        <v>56</v>
+      </c>
+      <c r="P36" s="8">
+        <v>70001920</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="8">
+        <v>45063</v>
+      </c>
+      <c r="S36" s="8">
+        <v>2850</v>
+      </c>
+      <c r="T36" s="8">
+        <v>600010201</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+      <c r="C37" s="6">
+        <v>1000005</v>
+      </c>
+      <c r="D37" s="9">
+        <v>28</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1005</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1006</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" s="10">
+        <v>3</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="8">
         <v>58</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P37" s="8">
         <v>70001930</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="8">
+      <c r="Q37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" s="8">
         <v>49613</v>
       </c>
-      <c r="R32" s="8">
+      <c r="S37" s="8">
         <v>2950</v>
       </c>
-      <c r="S32" s="8">
+      <c r="T37" s="8">
         <v>600010201</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
-    <row r="37" ht="20.1" customHeight="1"/>
     <row r="38" ht="20.1" customHeight="1"/>
     <row r="39" ht="20.1" customHeight="1"/>
     <row r="40" ht="20.1" customHeight="1"/>
@@ -3487,8 +3991,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -152,6 +152,12 @@
     <t>翻卡掉落ID</t>
   </si>
   <si>
+    <t>章节BossId</t>
+  </si>
+  <si>
+    <t>奖励展示</t>
+  </si>
+  <si>
     <t>MapType</t>
   </si>
   <si>
@@ -203,6 +209,15 @@
     <t>BoxDropID</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>BossId</t>
+  </si>
+  <si>
+    <t>RewardShow</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -444,6 +459,12 @@
   </si>
   <si>
     <t>组队副本地图1</t>
+  </si>
+  <si>
+    <t>ImgBig_11</t>
+  </si>
+  <si>
+    <t>1;1</t>
   </si>
   <si>
     <t>组队副本地图2</t>
@@ -653,7 +674,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +696,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149418622394482"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1074,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,16 +1098,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1089,89 +1116,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1195,9 +1222,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,6 +1229,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2000,10 +2030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:T47"/>
+  <dimension ref="C3:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="M20" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2014,10 +2044,12 @@
     <col min="14" max="14" width="33.625" customWidth="1"/>
     <col min="15" max="16" width="17.25" customWidth="1"/>
     <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="20" width="17.25" customWidth="1"/>
+    <col min="18" max="21" width="17.25" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
+    <col min="23" max="23" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2072,134 +2104,161 @@
       <c r="T3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="U3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H6" s="8">
         <v>100101</v>
@@ -2207,20 +2266,20 @@
       <c r="I6" s="8">
         <v>100105</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>1006</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="K6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="9">
         <v>3</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
@@ -2229,7 +2288,7 @@
         <v>70001910</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R6" s="8">
         <v>1418</v>
@@ -2240,22 +2299,25 @@
       <c r="T6" s="8">
         <v>600010201</v>
       </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8">
         <v>100201</v>
@@ -2263,20 +2325,20 @@
       <c r="I7" s="8">
         <v>100206</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>1006</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>3</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>49</v>
+      <c r="N7" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="O7" s="8">
         <v>3</v>
@@ -2285,7 +2347,7 @@
         <v>70001920</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R7" s="8">
         <v>1553</v>
@@ -2296,22 +2358,25 @@
       <c r="T7" s="8">
         <v>600010201</v>
       </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8" s="8">
         <v>100301</v>
@@ -2319,20 +2384,20 @@
       <c r="I8" s="8">
         <v>100305</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>1006</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>3</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>52</v>
+      <c r="N8" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="O8" s="8">
         <v>5</v>
@@ -2341,7 +2406,7 @@
         <v>70001930</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R8" s="8">
         <v>2015</v>
@@ -2352,22 +2417,25 @@
       <c r="T8" s="8">
         <v>600010201</v>
       </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H9" s="8">
         <v>100401</v>
@@ -2375,20 +2443,20 @@
       <c r="I9" s="8">
         <v>100405</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1006</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>3</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>55</v>
+      <c r="N9" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="O9" s="8">
         <v>8</v>
@@ -2397,7 +2465,7 @@
         <v>70001940</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R9" s="8">
         <v>2800</v>
@@ -2408,22 +2476,25 @@
       <c r="T9" s="8">
         <v>600010201</v>
       </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H10" s="8">
         <v>100501</v>
@@ -2431,20 +2502,20 @@
       <c r="I10" s="8">
         <v>100505</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>1006</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>3</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>58</v>
+      <c r="N10" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O10" s="8">
         <v>10</v>
@@ -2453,7 +2524,7 @@
         <v>70001950</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R10" s="8">
         <v>3238</v>
@@ -2464,22 +2535,25 @@
       <c r="T10" s="8">
         <v>600010201</v>
       </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H11" s="8">
         <v>100601</v>
@@ -2487,20 +2561,20 @@
       <c r="I11" s="8">
         <v>100605</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>1006</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>3</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>60</v>
+      <c r="N11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="O11" s="8">
         <v>12</v>
@@ -2509,7 +2583,7 @@
         <v>70001960</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R11" s="8">
         <v>3763</v>
@@ -2520,22 +2594,25 @@
       <c r="T11" s="8">
         <v>600010201</v>
       </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H12" s="8">
         <v>100701</v>
@@ -2543,20 +2620,20 @@
       <c r="I12" s="8">
         <v>100705</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>1006</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>3</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O12" s="8">
         <v>15</v>
@@ -2565,7 +2642,7 @@
         <v>70001970</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R12" s="8">
         <v>4550</v>
@@ -2576,22 +2653,25 @@
       <c r="T12" s="8">
         <v>600010201</v>
       </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C13" s="6">
         <v>20001</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H13" s="8">
         <v>200001</v>
@@ -2599,20 +2679,20 @@
       <c r="I13" s="8">
         <v>200005</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>1006</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="K13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="9">
         <v>3</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>66</v>
+      <c r="N13" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="O13" s="8">
         <v>18</v>
@@ -2621,7 +2701,7 @@
         <v>70002910</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R13" s="8">
         <v>5600</v>
@@ -2632,22 +2712,25 @@
       <c r="T13" s="8">
         <v>600010201</v>
       </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C14" s="6">
         <v>20002</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H14" s="8">
         <v>200101</v>
@@ -2655,20 +2738,20 @@
       <c r="I14" s="8">
         <v>200105</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>1006</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="K14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="9">
         <v>3</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>69</v>
+      <c r="N14" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="O14" s="8">
         <v>21</v>
@@ -2677,7 +2760,7 @@
         <v>70002920</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R14" s="8">
         <v>6825</v>
@@ -2688,22 +2771,25 @@
       <c r="T14" s="8">
         <v>600010201</v>
       </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C15" s="6">
         <v>20003</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H15" s="8">
         <v>200201</v>
@@ -2711,20 +2797,20 @@
       <c r="I15" s="8">
         <v>200205</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>1006</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="K15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="9">
         <v>3</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>71</v>
+      <c r="N15" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="O15" s="8">
         <v>24</v>
@@ -2733,7 +2819,7 @@
         <v>70002930</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R15" s="8">
         <v>8138</v>
@@ -2744,22 +2830,25 @@
       <c r="T15" s="8">
         <v>600010201</v>
       </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C16" s="6">
         <v>20004</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16" s="8">
         <v>200301</v>
@@ -2767,20 +2856,20 @@
       <c r="I16" s="8">
         <v>200305</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>1006</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="10">
+      <c r="K16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="9">
         <v>3</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>74</v>
+      <c r="N16" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="O16" s="8">
         <v>26</v>
@@ -2789,7 +2878,7 @@
         <v>70002940</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R16" s="8">
         <v>9188</v>
@@ -2800,22 +2889,25 @@
       <c r="T16" s="8">
         <v>600010201</v>
       </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C17" s="6">
         <v>20005</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H17" s="8">
         <v>200401</v>
@@ -2823,20 +2915,20 @@
       <c r="I17" s="8">
         <v>200405</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>1006</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="K17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="9">
         <v>3</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>76</v>
+      <c r="N17" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="O17" s="8">
         <v>28</v>
@@ -2845,7 +2937,7 @@
         <v>70002950</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R17" s="8">
         <v>10238</v>
@@ -2856,22 +2948,25 @@
       <c r="T17" s="8">
         <v>600010201</v>
       </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C18" s="6">
         <v>30001</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H18" s="8">
         <v>300001</v>
@@ -2879,20 +2974,20 @@
       <c r="I18" s="8">
         <v>300005</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>1006</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="10">
+      <c r="K18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="9">
         <v>3</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>80</v>
+      <c r="N18" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="O18" s="8">
         <v>30</v>
@@ -2901,7 +2996,7 @@
         <v>70003910</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R18" s="8">
         <v>11463</v>
@@ -2912,22 +3007,25 @@
       <c r="T18" s="8">
         <v>600010201</v>
       </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C19" s="6">
         <v>30002</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>10</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H19" s="8">
         <v>300101</v>
@@ -2935,20 +3033,20 @@
       <c r="I19" s="8">
         <v>300105</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>1006</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="10">
+      <c r="K19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="9">
         <v>3</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>82</v>
+      <c r="N19" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="O19" s="8">
         <v>32</v>
@@ -2957,7 +3055,7 @@
         <v>70003920</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R19" s="8">
         <v>12863</v>
@@ -2968,22 +3066,25 @@
       <c r="T19" s="8">
         <v>600010201</v>
       </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C20" s="6">
         <v>30003</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H20" s="8">
         <v>300201</v>
@@ -2991,20 +3092,20 @@
       <c r="I20" s="8">
         <v>300205</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>1006</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="10">
+      <c r="K20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>85</v>
+      <c r="N20" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="O20" s="8">
         <v>34</v>
@@ -3013,7 +3114,7 @@
         <v>70003930</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R20" s="8">
         <v>14263</v>
@@ -3024,22 +3125,25 @@
       <c r="T20" s="8">
         <v>600010201</v>
       </c>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C21" s="6">
         <v>30004</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21" s="8">
         <v>300301</v>
@@ -3047,20 +3151,20 @@
       <c r="I21" s="8">
         <v>300305</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>1006</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" s="10">
+      <c r="K21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="9">
         <v>3</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>87</v>
+      <c r="N21" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="O21" s="8">
         <v>36</v>
@@ -3069,7 +3173,7 @@
         <v>70003940</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R21" s="8">
         <v>16013</v>
@@ -3080,22 +3184,25 @@
       <c r="T21" s="8">
         <v>600010201</v>
       </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C22" s="6">
         <v>30005</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H22" s="8">
         <v>300401</v>
@@ -3103,20 +3210,20 @@
       <c r="I22" s="8">
         <v>300405</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>1006</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="10">
+      <c r="K22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="9">
         <v>3</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>90</v>
+      <c r="N22" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="O22" s="8">
         <v>38</v>
@@ -3125,7 +3232,7 @@
         <v>70003950</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R22" s="8">
         <v>17763</v>
@@ -3136,22 +3243,25 @@
       <c r="T22" s="8">
         <v>600010201</v>
       </c>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C23" s="6">
         <v>40001</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H23" s="8">
         <v>400001</v>
@@ -3159,20 +3269,20 @@
       <c r="I23" s="8">
         <v>400005</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>1006</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="10">
+      <c r="K23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="9">
         <v>3</v>
       </c>
-      <c r="N23" s="12" t="s">
-        <v>93</v>
+      <c r="N23" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="O23" s="8">
         <v>40</v>
@@ -3181,7 +3291,7 @@
         <v>70004910</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R23" s="8">
         <v>19775</v>
@@ -3192,22 +3302,25 @@
       <c r="T23" s="8">
         <v>600010201</v>
       </c>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C24" s="6">
         <v>40002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H24" s="8">
         <v>400101</v>
@@ -3215,20 +3328,20 @@
       <c r="I24" s="8">
         <v>400105</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>1006</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="10">
+      <c r="K24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="9">
         <v>3</v>
       </c>
-      <c r="N24" s="12" t="s">
-        <v>96</v>
+      <c r="N24" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="O24" s="8">
         <v>42</v>
@@ -3237,7 +3350,7 @@
         <v>70004920</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R24" s="8">
         <v>22050</v>
@@ -3248,22 +3361,25 @@
       <c r="T24" s="8">
         <v>600010201</v>
       </c>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C25" s="6">
         <v>40003</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H25" s="8">
         <v>400201</v>
@@ -3271,20 +3387,20 @@
       <c r="I25" s="8">
         <v>400205</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>1006</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="10">
+      <c r="K25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="9">
         <v>3</v>
       </c>
-      <c r="N25" s="12" t="s">
-        <v>98</v>
+      <c r="N25" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="O25" s="8">
         <v>44</v>
@@ -3293,7 +3409,7 @@
         <v>70004930</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R25" s="8">
         <v>24325</v>
@@ -3304,22 +3420,25 @@
       <c r="T25" s="8">
         <v>600010201</v>
       </c>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C26" s="6">
         <v>40004</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H26" s="8">
         <v>400301</v>
@@ -3327,20 +3446,20 @@
       <c r="I26" s="8">
         <v>400305</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>1006</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="10">
+      <c r="K26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="9">
         <v>3</v>
       </c>
-      <c r="N26" s="12" t="s">
-        <v>101</v>
+      <c r="N26" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="O26" s="8">
         <v>46</v>
@@ -3349,7 +3468,7 @@
         <v>70004940</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R26" s="8">
         <v>27125</v>
@@ -3360,22 +3479,25 @@
       <c r="T26" s="8">
         <v>600010201</v>
       </c>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C27" s="6">
         <v>40005</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H27" s="8">
         <v>400401</v>
@@ -3383,20 +3505,20 @@
       <c r="I27" s="8">
         <v>400405</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>1006</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" s="10">
+      <c r="K27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="9">
         <v>3</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>103</v>
+      <c r="N27" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="O27" s="8">
         <v>48</v>
@@ -3405,7 +3527,7 @@
         <v>70004950</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R27" s="8">
         <v>29925</v>
@@ -3416,22 +3538,25 @@
       <c r="T27" s="8">
         <v>600010201</v>
       </c>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C28" s="6">
         <v>50001</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H28" s="8">
         <v>1001</v>
@@ -3439,20 +3564,20 @@
       <c r="I28" s="8">
         <v>1005</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>1006</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="10">
+      <c r="K28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" s="9">
         <v>3</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O28" s="8">
         <v>50</v>
@@ -3461,7 +3586,7 @@
         <v>70002940</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R28" s="8">
         <v>33163</v>
@@ -3472,22 +3597,25 @@
       <c r="T28" s="8">
         <v>600010201</v>
       </c>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C29" s="6">
         <v>50002</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>15</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H29" s="8">
         <v>1001</v>
@@ -3495,20 +3623,20 @@
       <c r="I29" s="8">
         <v>1005</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>1006</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="10">
+      <c r="K29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="9">
         <v>3</v>
       </c>
-      <c r="N29" s="12" t="s">
-        <v>107</v>
+      <c r="N29" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O29" s="8">
         <v>52</v>
@@ -3517,7 +3645,7 @@
         <v>70002950</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R29" s="8">
         <v>36838</v>
@@ -3528,22 +3656,25 @@
       <c r="T29" s="8">
         <v>600010201</v>
       </c>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C30" s="6">
         <v>50003</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H30" s="8">
         <v>1001</v>
@@ -3551,20 +3682,20 @@
       <c r="I30" s="8">
         <v>1005</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>1006</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M30" s="10">
+      <c r="K30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" s="9">
         <v>3</v>
       </c>
-      <c r="N30" s="12" t="s">
-        <v>107</v>
+      <c r="N30" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O30" s="8">
         <v>54</v>
@@ -3573,7 +3704,7 @@
         <v>70001910</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R30" s="8">
         <v>40513</v>
@@ -3584,22 +3715,25 @@
       <c r="T30" s="8">
         <v>600010201</v>
       </c>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C31" s="6">
         <v>50004</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H31" s="8">
         <v>1001</v>
@@ -3607,20 +3741,20 @@
       <c r="I31" s="8">
         <v>1005</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>1006</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31" s="10">
+      <c r="K31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" s="9">
         <v>3</v>
       </c>
-      <c r="N31" s="12" t="s">
-        <v>107</v>
+      <c r="N31" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O31" s="8">
         <v>56</v>
@@ -3629,7 +3763,7 @@
         <v>70001920</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R31" s="8">
         <v>45063</v>
@@ -3640,22 +3774,25 @@
       <c r="T31" s="8">
         <v>600010201</v>
       </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C32" s="6">
         <v>50005</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H32" s="8">
         <v>1001</v>
@@ -3663,20 +3800,20 @@
       <c r="I32" s="8">
         <v>1005</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>1006</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M32" s="10">
+      <c r="K32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" s="9">
         <v>3</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>107</v>
+      <c r="N32" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O32" s="8">
         <v>58</v>
@@ -3685,7 +3822,7 @@
         <v>70001930</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R32" s="8">
         <v>49613</v>
@@ -3696,22 +3833,25 @@
       <c r="T32" s="8">
         <v>600010201</v>
       </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C33" s="6">
         <v>1000001</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>28</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H33" s="8">
         <v>1001</v>
@@ -3719,20 +3859,20 @@
       <c r="I33" s="8">
         <v>1005</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>1006</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M33" s="10">
+      <c r="K33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="9">
         <v>3</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O33" s="8">
         <v>50</v>
@@ -3741,7 +3881,7 @@
         <v>70002940</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R33" s="8">
         <v>33163</v>
@@ -3752,22 +3892,31 @@
       <c r="T33" s="8">
         <v>600010201</v>
       </c>
+      <c r="U33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V33" s="13">
+        <v>72000156</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C34" s="6">
         <v>1000002</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>28</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H34" s="8">
         <v>1001</v>
@@ -3775,20 +3924,20 @@
       <c r="I34" s="8">
         <v>1005</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>1006</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M34" s="10">
+      <c r="K34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="9">
         <v>3</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>107</v>
+      <c r="N34" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O34" s="8">
         <v>52</v>
@@ -3797,7 +3946,7 @@
         <v>70002950</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R34" s="8">
         <v>36838</v>
@@ -3808,22 +3957,31 @@
       <c r="T34" s="8">
         <v>600010201</v>
       </c>
+      <c r="U34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V34" s="13">
+        <v>72000156</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C35" s="6">
         <v>1000003</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>28</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H35" s="8">
         <v>1001</v>
@@ -3831,20 +3989,20 @@
       <c r="I35" s="8">
         <v>1005</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>1006</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M35" s="10">
+      <c r="K35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="9">
         <v>3</v>
       </c>
-      <c r="N35" s="12" t="s">
-        <v>107</v>
+      <c r="N35" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O35" s="8">
         <v>54</v>
@@ -3853,7 +4011,7 @@
         <v>70001910</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R35" s="8">
         <v>40513</v>
@@ -3864,22 +4022,31 @@
       <c r="T35" s="8">
         <v>600010201</v>
       </c>
+      <c r="U35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V35" s="13">
+        <v>72000156</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C36" s="6">
         <v>1000004</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>28</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H36" s="8">
         <v>1001</v>
@@ -3887,20 +4054,20 @@
       <c r="I36" s="8">
         <v>1005</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>1006</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M36" s="10">
+      <c r="K36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="9">
         <v>3</v>
       </c>
-      <c r="N36" s="12" t="s">
-        <v>107</v>
+      <c r="N36" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O36" s="8">
         <v>56</v>
@@ -3909,7 +4076,7 @@
         <v>70001920</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R36" s="8">
         <v>45063</v>
@@ -3920,22 +4087,31 @@
       <c r="T36" s="8">
         <v>600010201</v>
       </c>
+      <c r="U36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V36" s="13">
+        <v>72000156</v>
+      </c>
+      <c r="W36" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:20">
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C37" s="6">
         <v>1000005</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>28</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H37" s="8">
         <v>1001</v>
@@ -3943,20 +4119,20 @@
       <c r="I37" s="8">
         <v>1005</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>1006</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="10">
+      <c r="K37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="9">
         <v>3</v>
       </c>
-      <c r="N37" s="12" t="s">
-        <v>107</v>
+      <c r="N37" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O37" s="8">
         <v>58</v>
@@ -3965,7 +4141,7 @@
         <v>70001930</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R37" s="8">
         <v>49613</v>
@@ -3975,6 +4151,15 @@
       </c>
       <c r="T37" s="8">
         <v>600010201</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V37" s="13">
+        <v>72000156</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>组队副本地图5</t>
+  </si>
+  <si>
+    <t>组队副本地图6</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:W47"/>
+  <dimension ref="C3:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M20" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3837,7 +3840,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C33" s="6">
         <v>1000001</v>
       </c>
@@ -3851,43 +3854,43 @@
         <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H33" s="8">
-        <v>1001</v>
+        <v>100101</v>
       </c>
       <c r="I33" s="8">
-        <v>1005</v>
+        <v>100105</v>
       </c>
       <c r="J33" s="9">
         <v>1006</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="M33" s="9">
         <v>3</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P33" s="8">
-        <v>70002940</v>
+        <v>70001910</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R33" s="8">
-        <v>33163</v>
+        <v>1418</v>
       </c>
       <c r="S33" s="8">
-        <v>2550</v>
+        <v>100</v>
       </c>
       <c r="T33" s="8">
         <v>600010201</v>
@@ -3916,43 +3919,43 @@
         <v>45</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H34" s="8">
-        <v>1001</v>
+        <v>100101</v>
       </c>
       <c r="I34" s="8">
-        <v>1005</v>
+        <v>100105</v>
       </c>
       <c r="J34" s="9">
         <v>1006</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="M34" s="9">
         <v>3</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>112</v>
+      <c r="N34" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="O34" s="8">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="P34" s="8">
-        <v>70002950</v>
+        <v>70001910</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R34" s="8">
-        <v>36838</v>
+        <v>1418</v>
       </c>
       <c r="S34" s="8">
-        <v>2650</v>
+        <v>100</v>
       </c>
       <c r="T34" s="8">
         <v>600010201</v>
@@ -3981,31 +3984,31 @@
         <v>45</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H35" s="8">
-        <v>1001</v>
+        <v>100101</v>
       </c>
       <c r="I35" s="8">
-        <v>1005</v>
+        <v>100105</v>
       </c>
       <c r="J35" s="9">
         <v>1006</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="M35" s="9">
         <v>3</v>
       </c>
-      <c r="N35" s="11" t="s">
-        <v>112</v>
+      <c r="N35" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="O35" s="8">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="P35" s="8">
         <v>70001910</v>
@@ -4014,10 +4017,10 @@
         <v>50</v>
       </c>
       <c r="R35" s="8">
-        <v>40513</v>
+        <v>1418</v>
       </c>
       <c r="S35" s="8">
-        <v>2750</v>
+        <v>100</v>
       </c>
       <c r="T35" s="8">
         <v>600010201</v>
@@ -4046,43 +4049,43 @@
         <v>45</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H36" s="8">
-        <v>1001</v>
+        <v>100101</v>
       </c>
       <c r="I36" s="8">
-        <v>1005</v>
+        <v>100105</v>
       </c>
       <c r="J36" s="9">
         <v>1006</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="M36" s="9">
         <v>3</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>112</v>
+      <c r="N36" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="O36" s="8">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="P36" s="8">
-        <v>70001920</v>
+        <v>70001910</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R36" s="8">
-        <v>45063</v>
+        <v>1418</v>
       </c>
       <c r="S36" s="8">
-        <v>2850</v>
+        <v>100</v>
       </c>
       <c r="T36" s="8">
         <v>600010201</v>
@@ -4111,43 +4114,43 @@
         <v>45</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H37" s="8">
-        <v>1001</v>
+        <v>100101</v>
       </c>
       <c r="I37" s="8">
-        <v>1005</v>
+        <v>100105</v>
       </c>
       <c r="J37" s="9">
         <v>1006</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="M37" s="9">
         <v>3</v>
       </c>
-      <c r="N37" s="11" t="s">
-        <v>112</v>
+      <c r="N37" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="O37" s="8">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="P37" s="8">
-        <v>70001930</v>
+        <v>70001910</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R37" s="8">
-        <v>49613</v>
+        <v>1418</v>
       </c>
       <c r="S37" s="8">
-        <v>2950</v>
+        <v>100</v>
       </c>
       <c r="T37" s="8">
         <v>600010201</v>
@@ -4162,16 +4165,76 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C38" s="6">
+        <v>1000006</v>
+      </c>
+      <c r="D38" s="8">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="8">
+        <v>100101</v>
+      </c>
+      <c r="I38" s="8">
+        <v>100105</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1006</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="9">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+      <c r="P38" s="8">
+        <v>70001910</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R38" s="8">
+        <v>1418</v>
+      </c>
+      <c r="S38" s="8">
+        <v>100</v>
+      </c>
+      <c r="T38" s="8">
+        <v>600010201</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V38" s="13">
+        <v>72000156</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="39" ht="20.1" customHeight="1"/>
     <row r="40" ht="20.1" customHeight="1"/>
     <row r="41" ht="20.1" customHeight="1"/>
     <row r="42" ht="20.1" customHeight="1"/>
     <row r="43" ht="20.1" customHeight="1"/>
-    <row r="44" ht="20.1" customHeight="1"/>
-    <row r="45" ht="20.1" customHeight="1"/>
-    <row r="46" ht="20.1" customHeight="1"/>
-    <row r="47" ht="20.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F632090F-F236-48F8-8047-0B7304997187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellGenerateProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -88,18 +81,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -458,41 +451,57 @@
     <t>第五章地图5</t>
   </si>
   <si>
-    <t>组队副本地图1</t>
-  </si>
-  <si>
     <t>ImgBig_11</t>
   </si>
   <si>
     <t>1;1</t>
   </si>
   <si>
-    <t>组队副本地图2</t>
-  </si>
-  <si>
-    <t>组队副本地图3</t>
-  </si>
-  <si>
-    <t>组队副本地图4</t>
-  </si>
-  <si>
-    <t>组队副本地图5</t>
-  </si>
-  <si>
-    <t>组队副本地图6</t>
+    <t>摩尔山谷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷山荒漠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下遗迹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪之谷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>影月巢穴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002102,1002103,1002104,1002106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001102,1001103,1001104,1001106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003102,1003103,1003104,1003106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004102,1004103,1004104,1004106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005102,1005103,1005104,1005106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,150 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -676,8 +541,39 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,204 +594,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149418622394482"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14938810388500626"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -955,253 +665,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1231,144 +699,56 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1391,146 +771,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1553,16 +803,48 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="宋体"/>
         <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1585,48 +867,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1649,16 +899,146 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1679,11 +1059,78 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1720,27 +1167,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:P5" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="C4:P5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="11">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" name="MapType" uniqueName="2"/>
-    <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="2" name="MapType"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="10">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" name="Music" uniqueName="4" dataDxfId="2"/>
-    <tableColumn id="6" name="InitSize" uniqueName="5" dataDxfId="3"/>
-    <tableColumn id="5" name="StartArea" uniqueName="6" dataDxfId="4"/>
-    <tableColumn id="3" name="EndArea" uniqueName="7" dataDxfId="5"/>
-    <tableColumn id="7" name="StopArea" uniqueName="8" dataDxfId="6"/>
-    <tableColumn id="12" name="SpecialRoomPro" uniqueName="9" dataDxfId="7"/>
-    <tableColumn id="11" name="SpecialRoom" uniqueName="10" dataDxfId="8"/>
-    <tableColumn id="8" name="StopAreaNum" uniqueName="11"/>
-    <tableColumn id="4" name="RandomArea" uniqueName="12" dataDxfId="9"/>
-    <tableColumn id="9" name="EnterLv" uniqueName="13" dataDxfId="10"/>
-    <tableColumn id="10" name="BossIcon" uniqueName="14" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="4" name="Music" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="11" name="StopAreaNum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2027,19 +1474,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="9" width="16.75" customWidth="1"/>
@@ -2052,7 +1499,7 @@
     <col min="23" max="23" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="3" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="4" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +1629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="5" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -2247,15 +1694,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="6" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>1000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>45</v>
@@ -2264,10 +1711,10 @@
         <v>46</v>
       </c>
       <c r="H6" s="8">
-        <v>100101</v>
+        <v>1001101</v>
       </c>
       <c r="I6" s="8">
-        <v>100105</v>
+        <v>1001105</v>
       </c>
       <c r="J6" s="9">
         <v>1006</v>
@@ -2281,11 +1728,11 @@
       <c r="M6" s="9">
         <v>3</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>49</v>
+      <c r="N6" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="O6" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P6" s="8">
         <v>70001910</v>
@@ -2302,37 +1749,43 @@
       <c r="T6" s="8">
         <v>600010201</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="U6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="11">
+        <v>401065</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="7" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
-        <v>10002</v>
+        <v>1000002</v>
       </c>
       <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8">
-        <v>100201</v>
+        <v>1002101</v>
       </c>
       <c r="I7" s="8">
-        <v>100206</v>
+        <v>1002105</v>
       </c>
       <c r="J7" s="9">
         <v>1006</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>48</v>
@@ -2340,58 +1793,64 @@
       <c r="M7" s="9">
         <v>3</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>54</v>
+      <c r="N7" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="O7" s="8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P7" s="8">
-        <v>70001920</v>
+        <v>70001910</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R7" s="8">
-        <v>1553</v>
+        <v>1418</v>
       </c>
       <c r="S7" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T7" s="8">
         <v>600010201</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="U7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" s="11">
+        <v>402065</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="8" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
-        <v>10003</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>1000003</v>
+      </c>
+      <c r="D8" s="8">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8">
-        <v>100301</v>
+        <v>1003101</v>
       </c>
       <c r="I8" s="8">
-        <v>100305</v>
+        <v>1003105</v>
       </c>
       <c r="J8" s="9">
         <v>1006</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>48</v>
@@ -2399,58 +1858,64 @@
       <c r="M8" s="9">
         <v>3</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>57</v>
+      <c r="N8" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="O8" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P8" s="8">
-        <v>70001930</v>
+        <v>70001910</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R8" s="8">
-        <v>2015</v>
+        <v>1418</v>
       </c>
       <c r="S8" s="8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T8" s="8">
         <v>600010201</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="U8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V8" s="11">
+        <v>403065</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="9" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
-        <v>10004</v>
+        <v>1000004</v>
       </c>
       <c r="D9" s="8">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H9" s="8">
-        <v>100401</v>
+        <v>1004101</v>
       </c>
       <c r="I9" s="8">
-        <v>100405</v>
+        <v>1004105</v>
       </c>
       <c r="J9" s="9">
         <v>1006</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>48</v>
@@ -2458,58 +1923,64 @@
       <c r="M9" s="9">
         <v>3</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>60</v>
+      <c r="N9" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="O9" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="P9" s="8">
-        <v>70001940</v>
+        <v>70001910</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R9" s="8">
-        <v>2800</v>
+        <v>1418</v>
       </c>
       <c r="S9" s="8">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="T9" s="8">
         <v>600010201</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="U9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V9" s="11">
+        <v>404065</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="10" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
-        <v>10005</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>1000005</v>
+      </c>
+      <c r="D10" s="8">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H10" s="8">
-        <v>100501</v>
+        <v>1005101</v>
       </c>
       <c r="I10" s="8">
-        <v>100505</v>
+        <v>1005105</v>
       </c>
       <c r="J10" s="9">
         <v>1006</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>48</v>
@@ -2517,1731 +1988,1642 @@
       <c r="M10" s="9">
         <v>3</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>63</v>
+      <c r="N10" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="O10" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P10" s="8">
-        <v>70001950</v>
+        <v>70001910</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R10" s="8">
-        <v>3238</v>
+        <v>1418</v>
       </c>
       <c r="S10" s="8">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="T10" s="8">
         <v>600010201</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="U10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V10" s="11">
+        <v>405065</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C11" s="6">
+    <row r="11" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="14">
+        <v>10001</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="16">
+        <v>100101</v>
+      </c>
+      <c r="I11" s="16">
+        <v>100105</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1006</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="17">
+        <v>3</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="16">
+        <v>1</v>
+      </c>
+      <c r="P11" s="16">
+        <v>70001910</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1418</v>
+      </c>
+      <c r="S11" s="16">
+        <v>100</v>
+      </c>
+      <c r="T11" s="16">
+        <v>600010201</v>
+      </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="14">
+        <v>10002</v>
+      </c>
+      <c r="D12" s="16">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="16">
+        <v>100201</v>
+      </c>
+      <c r="I12" s="16">
+        <v>100206</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1006</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="17">
+        <v>3</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="16">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
+        <v>70001920</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1553</v>
+      </c>
+      <c r="S12" s="16">
+        <v>200</v>
+      </c>
+      <c r="T12" s="16">
+        <v>600010201</v>
+      </c>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="14">
+        <v>10003</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="16">
+        <v>100301</v>
+      </c>
+      <c r="I13" s="16">
+        <v>100305</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1006</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="17">
+        <v>3</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="16">
+        <v>5</v>
+      </c>
+      <c r="P13" s="16">
+        <v>70001930</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="16">
+        <v>2015</v>
+      </c>
+      <c r="S13" s="16">
+        <v>300</v>
+      </c>
+      <c r="T13" s="16">
+        <v>600010201</v>
+      </c>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="14">
+        <v>10004</v>
+      </c>
+      <c r="D14" s="16">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="16">
+        <v>100401</v>
+      </c>
+      <c r="I14" s="16">
+        <v>100405</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1006</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="17">
+        <v>3</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="16">
+        <v>8</v>
+      </c>
+      <c r="P14" s="16">
+        <v>70001940</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="16">
+        <v>2800</v>
+      </c>
+      <c r="S14" s="16">
+        <v>450</v>
+      </c>
+      <c r="T14" s="16">
+        <v>600010201</v>
+      </c>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="14">
+        <v>10005</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="16">
+        <v>100501</v>
+      </c>
+      <c r="I15" s="16">
+        <v>100505</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1006</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="17">
+        <v>3</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="16">
+        <v>10</v>
+      </c>
+      <c r="P15" s="16">
+        <v>70001950</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="16">
+        <v>3238</v>
+      </c>
+      <c r="S15" s="16">
+        <v>550</v>
+      </c>
+      <c r="T15" s="16">
+        <v>600010201</v>
+      </c>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="14">
         <v>10006</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D16" s="16">
         <v>6</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H16" s="16">
         <v>100601</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I16" s="16">
         <v>100605</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J16" s="17">
         <v>1006</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M16" s="17">
         <v>3</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O16" s="16">
         <v>12</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P16" s="16">
         <v>70001960</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R16" s="16">
         <v>3763</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S16" s="16">
         <v>650</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T16" s="16">
         <v>600010201</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C12" s="6">
+    <row r="17" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="14">
         <v>10007</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H17" s="16">
         <v>100701</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I17" s="16">
         <v>100705</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J17" s="17">
         <v>1006</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M17" s="17">
         <v>3</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O17" s="16">
         <v>15</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P17" s="16">
         <v>70001970</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R17" s="16">
         <v>4550</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S17" s="16">
         <v>800</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T17" s="16">
         <v>600010201</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C13" s="6">
+    <row r="18" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="14">
         <v>20001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D18" s="16">
         <v>7</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H18" s="16">
         <v>200001</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I18" s="16">
         <v>200005</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J18" s="17">
         <v>1006</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M18" s="17">
         <v>3</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O18" s="16">
         <v>18</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P18" s="16">
         <v>70002910</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R18" s="16">
         <v>5600</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S18" s="16">
         <v>950</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T18" s="16">
         <v>600010201</v>
       </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C14" s="6">
+    <row r="19" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="14">
         <v>20002</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H19" s="16">
         <v>200101</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I19" s="16">
         <v>200105</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J19" s="17">
         <v>1006</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M19" s="17">
         <v>3</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O19" s="16">
         <v>21</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P19" s="16">
         <v>70002920</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R19" s="16">
         <v>6825</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S19" s="16">
         <v>1100</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T19" s="16">
         <v>600010201</v>
       </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C15" s="6">
+    <row r="20" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="14">
         <v>20003</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D20" s="16">
         <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H20" s="16">
         <v>200201</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I20" s="16">
         <v>200205</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J20" s="17">
         <v>1006</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M20" s="17">
         <v>3</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O20" s="16">
         <v>24</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P20" s="16">
         <v>70002930</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R20" s="16">
         <v>8138</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S20" s="16">
         <v>1250</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T20" s="16">
         <v>600010201</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C16" s="6">
+    <row r="21" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="14">
         <v>20004</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H21" s="16">
         <v>200301</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I21" s="16">
         <v>200305</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J21" s="17">
         <v>1006</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M21" s="17">
         <v>3</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O21" s="16">
         <v>26</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P21" s="16">
         <v>70002940</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R21" s="16">
         <v>9188</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S21" s="16">
         <v>1350</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T21" s="16">
         <v>600010201</v>
       </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C17" s="6">
+    <row r="22" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="14">
         <v>20005</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D22" s="16">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H22" s="16">
         <v>200401</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I22" s="16">
         <v>200405</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J22" s="17">
         <v>1006</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M22" s="17">
         <v>3</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O22" s="16">
         <v>28</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P22" s="16">
         <v>70002950</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R22" s="16">
         <v>10238</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S22" s="16">
         <v>1450</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T22" s="16">
         <v>600010201</v>
       </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C18" s="6">
+    <row r="23" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="14">
         <v>30001</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E23" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H23" s="16">
         <v>300001</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I23" s="16">
         <v>300005</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J23" s="17">
         <v>1006</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M23" s="17">
         <v>3</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O23" s="16">
         <v>30</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P23" s="16">
         <v>70003910</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R23" s="16">
         <v>11463</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S23" s="16">
         <v>1550</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T23" s="16">
         <v>600010201</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C19" s="6">
+    <row r="24" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="14">
         <v>30002</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D24" s="16">
         <v>10</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H24" s="16">
         <v>300101</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I24" s="16">
         <v>300105</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J24" s="17">
         <v>1006</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M24" s="17">
         <v>3</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N24" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O24" s="16">
         <v>32</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P24" s="16">
         <v>70003920</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R24" s="16">
         <v>12863</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S24" s="16">
         <v>1650</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T24" s="16">
         <v>600010201</v>
       </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C20" s="6">
+    <row r="25" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="14">
         <v>30003</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E25" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H25" s="16">
         <v>300201</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I25" s="16">
         <v>300205</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J25" s="17">
         <v>1006</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L25" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M25" s="17">
         <v>3</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O25" s="16">
         <v>34</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P25" s="16">
         <v>70003930</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R25" s="16">
         <v>14263</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S25" s="16">
         <v>1750</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T25" s="16">
         <v>600010201</v>
       </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C21" s="6">
+    <row r="26" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="14">
         <v>30004</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D26" s="16">
         <v>11</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H26" s="16">
         <v>300301</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I26" s="16">
         <v>300305</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J26" s="17">
         <v>1006</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L26" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M26" s="17">
         <v>3</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N26" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O26" s="16">
         <v>36</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P26" s="16">
         <v>70003940</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R26" s="16">
         <v>16013</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S26" s="16">
         <v>1850</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T26" s="16">
         <v>600010201</v>
       </c>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C22" s="6">
+    <row r="27" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="14">
         <v>30005</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H27" s="16">
         <v>300401</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I27" s="16">
         <v>300405</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J27" s="17">
         <v>1006</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L27" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M27" s="17">
         <v>3</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O27" s="16">
         <v>38</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P27" s="16">
         <v>70003950</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R27" s="16">
         <v>17763</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S27" s="16">
         <v>1950</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T27" s="16">
         <v>600010201</v>
       </c>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C23" s="6">
+    <row r="28" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="14">
         <v>40001</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D28" s="16">
         <v>12</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E28" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G28" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H28" s="16">
         <v>400001</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I28" s="16">
         <v>400005</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J28" s="17">
         <v>1006</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M28" s="17">
         <v>3</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O28" s="16">
         <v>40</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P28" s="16">
         <v>70004910</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R28" s="16">
         <v>19775</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S28" s="16">
         <v>2050</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T28" s="16">
         <v>600010201</v>
       </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C24" s="6">
+    <row r="29" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="14">
         <v>40002</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D29" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H29" s="16">
         <v>400101</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I29" s="16">
         <v>400105</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J29" s="17">
         <v>1006</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K29" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L29" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M29" s="17">
         <v>3</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N29" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O29" s="16">
         <v>42</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P29" s="16">
         <v>70004920</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R29" s="16">
         <v>22050</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S29" s="16">
         <v>2150</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T29" s="16">
         <v>600010201</v>
       </c>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C25" s="6">
+    <row r="30" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="14">
         <v>40003</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D30" s="16">
         <v>13</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H30" s="16">
         <v>400201</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I30" s="16">
         <v>400205</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J30" s="17">
         <v>1006</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L30" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M30" s="17">
         <v>3</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N30" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O30" s="16">
         <v>44</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P30" s="16">
         <v>70004930</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R30" s="16">
         <v>24325</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S30" s="16">
         <v>2250</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T30" s="16">
         <v>600010201</v>
       </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C26" s="6">
+    <row r="31" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="14">
         <v>40004</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H31" s="16">
         <v>400301</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I31" s="16">
         <v>400305</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J31" s="17">
         <v>1006</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L31" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M31" s="17">
         <v>3</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N31" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O31" s="16">
         <v>46</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P31" s="16">
         <v>70004940</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R31" s="16">
         <v>27125</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S31" s="16">
         <v>2350</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T31" s="16">
         <v>600010201</v>
       </c>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C27" s="6">
+    <row r="32" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="14">
         <v>40005</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D32" s="16">
         <v>14</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E32" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H32" s="16">
         <v>400401</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I32" s="16">
         <v>400405</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J32" s="17">
         <v>1006</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L32" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M32" s="17">
         <v>3</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N32" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O32" s="16">
         <v>48</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P32" s="16">
         <v>70004950</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R32" s="16">
         <v>29925</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S32" s="16">
         <v>2450</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T32" s="16">
         <v>600010201</v>
       </c>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C28" s="6">
+    <row r="33" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="14">
         <v>50001</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D33" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H33" s="16">
         <v>1001</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I33" s="16">
         <v>1005</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J33" s="17">
         <v>1006</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K33" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L33" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M33" s="17">
         <v>3</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N33" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O33" s="16">
         <v>50</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P33" s="16">
         <v>70002940</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R33" s="16">
         <v>33163</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S33" s="16">
         <v>2550</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T33" s="16">
         <v>600010201</v>
       </c>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C29" s="6">
+    <row r="34" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="14">
         <v>50002</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D34" s="16">
         <v>15</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E34" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G34" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H34" s="16">
         <v>1001</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I34" s="16">
         <v>1005</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J34" s="17">
         <v>1006</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L34" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M34" s="17">
         <v>3</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N34" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O34" s="16">
         <v>52</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P34" s="16">
         <v>70002950</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q34" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R34" s="16">
         <v>36838</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S34" s="16">
         <v>2650</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T34" s="16">
         <v>600010201</v>
       </c>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C30" s="6">
+    <row r="35" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="14">
         <v>50003</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E35" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G35" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H35" s="16">
         <v>1001</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I35" s="16">
         <v>1005</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J35" s="17">
         <v>1006</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K35" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L35" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M35" s="17">
         <v>3</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N35" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O35" s="16">
         <v>54</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P35" s="16">
         <v>70001910</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R35" s="16">
         <v>40513</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S35" s="16">
         <v>2750</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T35" s="16">
         <v>600010201</v>
       </c>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C31" s="6">
+    <row r="36" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="14">
         <v>50004</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D36" s="16">
         <v>16</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E36" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H36" s="16">
         <v>1001</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I36" s="16">
         <v>1005</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J36" s="17">
         <v>1006</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L36" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M36" s="17">
         <v>3</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O36" s="16">
         <v>56</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P36" s="16">
         <v>70001920</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R36" s="16">
         <v>45063</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S36" s="16">
         <v>2850</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T36" s="16">
         <v>600010201</v>
       </c>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C32" s="6">
+    <row r="37" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="14">
         <v>50005</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D37" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E37" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G37" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H37" s="16">
         <v>1001</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I37" s="16">
         <v>1005</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J37" s="17">
         <v>1006</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K37" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L37" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M37" s="17">
         <v>3</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N37" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O37" s="16">
         <v>58</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P37" s="16">
         <v>70001930</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R37" s="16">
         <v>49613</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S37" s="16">
         <v>2950</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T37" s="16">
         <v>600010201</v>
       </c>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C33" s="6">
-        <v>1000001</v>
-      </c>
-      <c r="D33" s="8">
-        <v>28</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="8">
-        <v>100101</v>
-      </c>
-      <c r="I33" s="8">
-        <v>100105</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="9">
-        <v>3</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O33" s="8">
-        <v>1</v>
-      </c>
-      <c r="P33" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S33" s="8">
-        <v>100</v>
-      </c>
-      <c r="T33" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V33" s="13">
-        <v>72000156</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C34" s="6">
-        <v>1000002</v>
-      </c>
-      <c r="D34" s="8">
-        <v>28</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="8">
-        <v>100101</v>
-      </c>
-      <c r="I34" s="8">
-        <v>100105</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34" s="9">
-        <v>3</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O34" s="8">
-        <v>1</v>
-      </c>
-      <c r="P34" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S34" s="8">
-        <v>100</v>
-      </c>
-      <c r="T34" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V34" s="13">
-        <v>72000156</v>
-      </c>
-      <c r="W34" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C35" s="6">
-        <v>1000003</v>
-      </c>
-      <c r="D35" s="8">
-        <v>28</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="8">
-        <v>100101</v>
-      </c>
-      <c r="I35" s="8">
-        <v>100105</v>
-      </c>
-      <c r="J35" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" s="9">
-        <v>3</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1</v>
-      </c>
-      <c r="P35" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R35" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S35" s="8">
-        <v>100</v>
-      </c>
-      <c r="T35" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V35" s="13">
-        <v>72000156</v>
-      </c>
-      <c r="W35" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C36" s="6">
-        <v>1000004</v>
-      </c>
-      <c r="D36" s="8">
-        <v>28</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="8">
-        <v>100101</v>
-      </c>
-      <c r="I36" s="8">
-        <v>100105</v>
-      </c>
-      <c r="J36" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36" s="9">
-        <v>3</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O36" s="8">
-        <v>1</v>
-      </c>
-      <c r="P36" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R36" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S36" s="8">
-        <v>100</v>
-      </c>
-      <c r="T36" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U36" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V36" s="13">
-        <v>72000156</v>
-      </c>
-      <c r="W36" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C37" s="6">
-        <v>1000005</v>
-      </c>
-      <c r="D37" s="8">
-        <v>28</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="8">
-        <v>100101</v>
-      </c>
-      <c r="I37" s="8">
-        <v>100105</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" s="9">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O37" s="8">
-        <v>1</v>
-      </c>
-      <c r="P37" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R37" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S37" s="8">
-        <v>100</v>
-      </c>
-      <c r="T37" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V37" s="13">
-        <v>72000156</v>
-      </c>
-      <c r="W37" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
-      <c r="C38" s="6">
-        <v>1000006</v>
-      </c>
-      <c r="D38" s="8">
-        <v>28</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="8">
-        <v>100101</v>
-      </c>
-      <c r="I38" s="8">
-        <v>100105</v>
-      </c>
-      <c r="J38" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="9">
-        <v>3</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O38" s="8">
-        <v>1</v>
-      </c>
-      <c r="P38" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R38" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S38" s="8">
-        <v>100</v>
-      </c>
-      <c r="T38" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V38" s="13">
-        <v>72000156</v>
-      </c>
-      <c r="W38" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
-    <row r="43" ht="20.1" customHeight="1"/>
+    <row r="38" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F632090F-F236-48F8-8047-0B7304997187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="CellGenerateProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,18 +88,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -223,30 +230,66 @@
     <t>double[]</t>
   </si>
   <si>
+    <t>摩尔山谷</t>
+  </si>
+  <si>
+    <t>Fight_1</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>0.9,0.05</t>
+  </si>
+  <si>
+    <t>101,201</t>
+  </si>
+  <si>
+    <t>1001102,1001103,1001104,1001106</t>
+  </si>
+  <si>
+    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
+  </si>
+  <si>
+    <t>ImgBig_11</t>
+  </si>
+  <si>
+    <t>1;1</t>
+  </si>
+  <si>
+    <t>谷山荒漠</t>
+  </si>
+  <si>
+    <t>1002102,1002103,1002104,1002106</t>
+  </si>
+  <si>
+    <t>地下遗迹</t>
+  </si>
+  <si>
+    <t>1003102,1003103,1003104,1003106</t>
+  </si>
+  <si>
+    <t>冰雪之谷</t>
+  </si>
+  <si>
+    <t>1004102,1004103,1004104,1004106</t>
+  </si>
+  <si>
+    <t>影月巢穴</t>
+  </si>
+  <si>
+    <t>1005102,1005103,1005104,1005106</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>洛兰岛</t>
   </si>
   <si>
-    <t>Fight_1</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>0.9,0.05</t>
-  </si>
-  <si>
-    <t>101,201</t>
-  </si>
-  <si>
     <t>100102,100103</t>
   </si>
   <si>
-    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
-  </si>
-  <si>
     <t>洛兰岛深处</t>
   </si>
   <si>
@@ -259,9 +302,6 @@
     <t>100202,100203,100204,100205</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>雷鸣森林</t>
   </si>
   <si>
@@ -277,9 +317,6 @@
     <t>100402,100403,100404,100406,100407</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>精灵遗迹</t>
   </si>
   <si>
@@ -292,9 +329,6 @@
     <t>100602,100603,100604,100606,100607</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>洛兰梦境</t>
   </si>
   <si>
@@ -310,9 +344,6 @@
     <t>200002,200003,200004</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>荒芜沙漠</t>
   </si>
   <si>
@@ -325,9 +356,6 @@
     <t>200202,200203,200204</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>古城废墟深处</t>
   </si>
   <si>
@@ -340,9 +368,6 @@
     <t>200402,200403,200404,200406</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>永歌密林</t>
   </si>
   <si>
@@ -358,9 +383,6 @@
     <t>300102,300103,300104,300106</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>巨石营地</t>
   </si>
   <si>
@@ -373,9 +395,6 @@
     <t>300302,300303,300304,300306</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>地下之城遗迹</t>
   </si>
   <si>
@@ -391,9 +410,6 @@
     <t>400002,400003,400004</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>冰雪森林中心</t>
   </si>
   <si>
@@ -406,9 +422,6 @@
     <t>400202,400203,400204</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>冰封之路</t>
   </si>
   <si>
@@ -421,9 +434,6 @@
     <t>400402,400403,400404,400406</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>第五章地图1</t>
   </si>
   <si>
@@ -436,72 +446,26 @@
     <t>第五章地图2</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>第五章地图3</t>
   </si>
   <si>
     <t>第五章地图4</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>第五章地图5</t>
-  </si>
-  <si>
-    <t>ImgBig_11</t>
-  </si>
-  <si>
-    <t>1;1</t>
-  </si>
-  <si>
-    <t>摩尔山谷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷山荒漠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下遗迹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪之谷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>影月巢穴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002102,1002103,1002104,1002106</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001102,1001103,1001104,1001106</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003102,1003103,1003104,1003106</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004102,1004103,1004104,1004106</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005102,1005103,1005104,1005106</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +476,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,10 +509,155 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -542,38 +665,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,18 +692,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14938810388500626"/>
+        <fgColor theme="0" tint="-0.149388103885006"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -665,11 +949,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -677,20 +1203,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,56 +1243,150 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -771,16 +1409,146 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -803,48 +1571,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <name val="宋体"/>
         <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -867,16 +1603,48 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.149937437055574"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -899,146 +1667,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1059,78 +1697,11 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1167,27 +1738,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="C4:P5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:P5" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="11">
+    <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="2" name="MapType"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="10">
+    <tableColumn id="14" name="MapType" uniqueName="2"/>
+    <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="4" name="Music" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="11" name="StopAreaNum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="0"/>
+    <tableColumn id="13" name="Music" uniqueName="4" dataDxfId="2"/>
+    <tableColumn id="6" name="InitSize" uniqueName="5" dataDxfId="3"/>
+    <tableColumn id="5" name="StartArea" uniqueName="6" dataDxfId="4"/>
+    <tableColumn id="3" name="EndArea" uniqueName="7" dataDxfId="5"/>
+    <tableColumn id="7" name="StopArea" uniqueName="8" dataDxfId="6"/>
+    <tableColumn id="12" name="SpecialRoomPro" uniqueName="9" dataDxfId="7"/>
+    <tableColumn id="11" name="SpecialRoom" uniqueName="10" dataDxfId="8"/>
+    <tableColumn id="8" name="StopAreaNum" uniqueName="11"/>
+    <tableColumn id="4" name="RandomArea" uniqueName="12" dataDxfId="9"/>
+    <tableColumn id="9" name="EnterLv" uniqueName="13" dataDxfId="10"/>
+    <tableColumn id="10" name="BossIcon" uniqueName="14" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1474,19 +2045,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="9" width="16.75" customWidth="1"/>
@@ -1499,2131 +2070,2133 @@
     <col min="23" max="23" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="4" t="s">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="6">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C6" s="8">
         <v>1000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1001101</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1001105</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1006</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="15">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="9">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="P6" s="9">
+        <v>70001910</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1418</v>
+      </c>
+      <c r="S6" s="9">
+        <v>100</v>
+      </c>
+      <c r="T6" s="9">
+        <v>600010201</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="20">
+        <v>401065</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C7" s="8">
+        <v>1000002</v>
+      </c>
+      <c r="D7" s="9">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H7" s="9">
+        <v>1002101</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1002105</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1006</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="8">
-        <v>1001101</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1001105</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="L7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="15">
+        <v>3</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="9">
+        <v>20</v>
+      </c>
+      <c r="P7" s="9">
+        <v>70001910</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1418</v>
+      </c>
+      <c r="S7" s="9">
+        <v>100</v>
+      </c>
+      <c r="T7" s="9">
+        <v>600010201</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="20">
+        <v>402065</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C8" s="8">
+        <v>1000003</v>
+      </c>
+      <c r="D8" s="9">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1003101</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1003105</v>
+      </c>
+      <c r="J8" s="15">
         <v>1006</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="M8" s="15">
         <v>3</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="8">
-        <v>12</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="N8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="9">
+        <v>30</v>
+      </c>
+      <c r="P8" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1418</v>
+      </c>
+      <c r="S8" s="9">
+        <v>100</v>
+      </c>
+      <c r="T8" s="9">
+        <v>600010201</v>
+      </c>
+      <c r="U8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="8">
+      <c r="V8" s="20">
+        <v>403065</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C9" s="8">
+        <v>1000004</v>
+      </c>
+      <c r="D9" s="9">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1004101</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1004105</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1006</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="15">
+        <v>3</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="9">
+        <v>40</v>
+      </c>
+      <c r="P9" s="9">
+        <v>70001910</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="9">
         <v>1418</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S9" s="9">
         <v>100</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T9" s="9">
         <v>600010201</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="11">
-        <v>401065</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>120</v>
+      <c r="U9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="20">
+        <v>404065</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="6">
-        <v>1000002</v>
-      </c>
-      <c r="D7" s="8">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C10" s="8">
+        <v>1000005</v>
+      </c>
+      <c r="D10" s="9">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H10" s="9">
+        <v>1005101</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1005105</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1006</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="8">
-        <v>1002101</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1002105</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="L10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="M10" s="15">
         <v>3</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" s="8">
-        <v>20</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="N10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="9">
+        <v>50</v>
+      </c>
+      <c r="P10" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1418</v>
+      </c>
+      <c r="S10" s="9">
+        <v>100</v>
+      </c>
+      <c r="T10" s="9">
+        <v>600010201</v>
+      </c>
+      <c r="U10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S7" s="8">
-        <v>100</v>
-      </c>
-      <c r="T7" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V7" s="11">
-        <v>402065</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>120</v>
+      <c r="V10" s="20">
+        <v>405065</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="6">
-        <v>1000003</v>
-      </c>
-      <c r="D8" s="8">
-        <v>30</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
+    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C11" s="12">
+        <v>10001</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1003101</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1003105</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="9">
-        <v>3</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="O8" s="8">
-        <v>30</v>
-      </c>
-      <c r="P8" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S8" s="8">
-        <v>100</v>
-      </c>
-      <c r="T8" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V8" s="11">
-        <v>403065</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="6">
-        <v>1000004</v>
-      </c>
-      <c r="D9" s="8">
-        <v>40</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1004101</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1004105</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="O9" s="8">
-        <v>40</v>
-      </c>
-      <c r="P9" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S9" s="8">
-        <v>100</v>
-      </c>
-      <c r="T9" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V9" s="11">
-        <v>404065</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="6">
-        <v>1000005</v>
-      </c>
-      <c r="D10" s="8">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1005101</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1005105</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1006</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="9">
-        <v>3</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10" s="8">
-        <v>50</v>
-      </c>
-      <c r="P10" s="8">
-        <v>70001910</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="8">
-        <v>1418</v>
-      </c>
-      <c r="S10" s="8">
-        <v>100</v>
-      </c>
-      <c r="T10" s="8">
-        <v>600010201</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V10" s="11">
-        <v>405065</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="14">
-        <v>10001</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>100101</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>100105</v>
       </c>
       <c r="J11" s="17">
         <v>1006</v>
       </c>
       <c r="K11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="17">
         <v>3</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
+        <v>70001910</v>
+      </c>
+      <c r="Q11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="16">
-        <v>1</v>
-      </c>
-      <c r="P11" s="16">
-        <v>70001910</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="16">
+      <c r="R11" s="14">
         <v>1418</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="14">
         <v>100</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="14">
         <v>600010201</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
     </row>
-    <row r="12" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="14">
+    <row r="12" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C12" s="12">
         <v>10002</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>4</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="E12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="14">
         <v>100201</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>100206</v>
       </c>
       <c r="J12" s="17">
         <v>1006</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12" s="17">
         <v>3</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="16">
+      <c r="N12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="14">
         <v>3</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <v>70001920</v>
       </c>
-      <c r="Q12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="16">
+      <c r="Q12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="14">
         <v>1553</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="14">
         <v>200</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="14">
         <v>600010201</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
     </row>
-    <row r="13" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="14">
+    <row r="13" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C13" s="12">
         <v>10003</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="14">
         <v>100301</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>100305</v>
       </c>
       <c r="J13" s="17">
         <v>1006</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="17">
         <v>3</v>
       </c>
-      <c r="N13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="16">
+      <c r="N13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="14">
         <v>5</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="14">
         <v>70001930</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="16">
+      <c r="Q13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="14">
         <v>2015</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="14">
         <v>300</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="14">
         <v>600010201</v>
       </c>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
     </row>
-    <row r="14" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="14">
+    <row r="14" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C14" s="12">
         <v>10004</v>
       </c>
-      <c r="D14" s="16">
-        <v>5</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="14">
         <v>100401</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>100405</v>
       </c>
       <c r="J14" s="17">
         <v>1006</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="17">
         <v>3</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="14">
+        <v>8</v>
+      </c>
+      <c r="P14" s="14">
+        <v>70001940</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="14">
+        <v>2800</v>
+      </c>
+      <c r="S14" s="14">
+        <v>450</v>
+      </c>
+      <c r="T14" s="14">
+        <v>600010201</v>
+      </c>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C15" s="12">
+        <v>10005</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="16">
-        <v>8</v>
-      </c>
-      <c r="P14" s="16">
-        <v>70001940</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="16">
-        <v>2800</v>
-      </c>
-      <c r="S14" s="16">
-        <v>450</v>
-      </c>
-      <c r="T14" s="16">
-        <v>600010201</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-    </row>
-    <row r="15" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="14">
-        <v>10005</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="E15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="14">
         <v>100501</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <v>100505</v>
       </c>
       <c r="J15" s="17">
         <v>1006</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" s="17">
         <v>3</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="16">
+      <c r="N15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="14">
         <v>10</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="14">
         <v>70001950</v>
       </c>
-      <c r="Q15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="16">
+      <c r="Q15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="14">
         <v>3238</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="14">
         <v>550</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="14">
         <v>600010201</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
     </row>
-    <row r="16" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="14">
+    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C16" s="12">
         <v>10006</v>
       </c>
-      <c r="D16" s="16">
-        <v>6</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="D16" s="14">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="14">
         <v>100601</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="14">
         <v>100605</v>
       </c>
       <c r="J16" s="17">
         <v>1006</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="17">
         <v>3</v>
       </c>
-      <c r="N16" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="16">
+      <c r="N16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="14">
         <v>12</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <v>70001960</v>
       </c>
-      <c r="Q16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" s="16">
+      <c r="Q16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="14">
         <v>3763</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="14">
         <v>650</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="14">
         <v>600010201</v>
       </c>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
     </row>
-    <row r="17" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="14">
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C17" s="12">
         <v>10007</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="D17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="14">
         <v>100701</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>100705</v>
       </c>
       <c r="J17" s="17">
         <v>1006</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="17">
         <v>3</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="16">
+      <c r="N17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="14">
         <v>15</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <v>70001970</v>
       </c>
-      <c r="Q17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="16">
+      <c r="Q17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="14">
         <v>4550</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="14">
         <v>800</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="14">
         <v>600010201</v>
       </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
     </row>
-    <row r="18" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="14">
+    <row r="18" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C18" s="12">
         <v>20001</v>
       </c>
-      <c r="D18" s="16">
-        <v>7</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="D18" s="14">
+        <v>4</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="14">
         <v>200001</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="14">
         <v>200005</v>
       </c>
       <c r="J18" s="17">
         <v>1006</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M18" s="17">
         <v>3</v>
       </c>
-      <c r="N18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="16">
+      <c r="N18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="14">
         <v>18</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="14">
         <v>70002910</v>
       </c>
-      <c r="Q18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="16">
+      <c r="Q18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="14">
         <v>5600</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="14">
         <v>950</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="14">
         <v>600010201</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
     </row>
-    <row r="19" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="14">
+    <row r="19" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C19" s="12">
         <v>20002</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="D19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="14">
         <v>200101</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="14">
         <v>200105</v>
       </c>
       <c r="J19" s="17">
         <v>1006</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M19" s="17">
         <v>3</v>
       </c>
-      <c r="N19" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="16">
+      <c r="N19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="14">
         <v>21</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="14">
         <v>70002920</v>
       </c>
-      <c r="Q19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="16">
+      <c r="Q19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="14">
         <v>6825</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="14">
         <v>1100</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="14">
         <v>600010201</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
     </row>
-    <row r="20" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="14">
+    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C20" s="12">
         <v>20003</v>
       </c>
-      <c r="D20" s="16">
-        <v>8</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="D20" s="14">
+        <v>4</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="14">
         <v>200201</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="14">
         <v>200205</v>
       </c>
       <c r="J20" s="17">
         <v>1006</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>3</v>
       </c>
-      <c r="N20" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="16">
+      <c r="N20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="14">
         <v>24</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="14">
         <v>70002930</v>
       </c>
-      <c r="Q20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="16">
+      <c r="Q20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="14">
         <v>8138</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="14">
         <v>1250</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="14">
         <v>600010201</v>
       </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
     </row>
-    <row r="21" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="14">
+    <row r="21" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C21" s="12">
         <v>20004</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="14">
         <v>200301</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <v>200305</v>
       </c>
       <c r="J21" s="17">
         <v>1006</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M21" s="17">
         <v>3</v>
       </c>
-      <c r="N21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="16">
+      <c r="N21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="14">
         <v>26</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="14">
         <v>70002940</v>
       </c>
-      <c r="Q21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="16">
+      <c r="Q21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="14">
         <v>9188</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="14">
         <v>1350</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="14">
         <v>600010201</v>
       </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
     </row>
-    <row r="22" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="14">
+    <row r="22" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C22" s="12">
         <v>20005</v>
       </c>
-      <c r="D22" s="16">
-        <v>9</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="D22" s="14">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="14">
         <v>200401</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="14">
         <v>200405</v>
       </c>
       <c r="J22" s="17">
         <v>1006</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M22" s="17">
         <v>3</v>
       </c>
-      <c r="N22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="16">
+      <c r="N22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="14">
         <v>28</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="14">
         <v>70002950</v>
       </c>
-      <c r="Q22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="16">
+      <c r="Q22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="14">
         <v>10238</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S22" s="14">
         <v>1450</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="14">
         <v>600010201</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
     </row>
-    <row r="23" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="14">
+    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C23" s="12">
         <v>30001</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="D23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="14">
         <v>300001</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="14">
         <v>300005</v>
       </c>
       <c r="J23" s="17">
         <v>1006</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M23" s="17">
         <v>3</v>
       </c>
-      <c r="N23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O23" s="16">
+      <c r="N23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="14">
         <v>30</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="14">
         <v>70003910</v>
       </c>
-      <c r="Q23" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R23" s="16">
+      <c r="Q23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="14">
         <v>11463</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="14">
         <v>1550</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="14">
         <v>600010201</v>
       </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
     </row>
-    <row r="24" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="14">
+    <row r="24" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C24" s="12">
         <v>30002</v>
       </c>
-      <c r="D24" s="16">
-        <v>10</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="D24" s="14">
+        <v>4</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="14">
         <v>300101</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="14">
         <v>300105</v>
       </c>
       <c r="J24" s="17">
         <v>1006</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M24" s="17">
         <v>3</v>
       </c>
-      <c r="N24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="O24" s="16">
+      <c r="N24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="14">
         <v>32</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="14">
         <v>70003920</v>
       </c>
-      <c r="Q24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="16">
+      <c r="Q24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="14">
         <v>12863</v>
       </c>
-      <c r="S24" s="16">
+      <c r="S24" s="14">
         <v>1650</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="14">
         <v>600010201</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
     </row>
-    <row r="25" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="14">
+    <row r="25" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C25" s="12">
         <v>30003</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="D25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="14">
         <v>300201</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="14">
         <v>300205</v>
       </c>
       <c r="J25" s="17">
         <v>1006</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M25" s="17">
         <v>3</v>
       </c>
-      <c r="N25" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="O25" s="16">
+      <c r="N25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" s="14">
         <v>34</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="14">
         <v>70003930</v>
       </c>
-      <c r="Q25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R25" s="16">
+      <c r="Q25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="14">
         <v>14263</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="14">
         <v>1750</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="14">
         <v>600010201</v>
       </c>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
     </row>
-    <row r="26" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="14">
+    <row r="26" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C26" s="12">
         <v>30004</v>
       </c>
-      <c r="D26" s="16">
-        <v>11</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="16">
+      <c r="D26" s="14">
+        <v>4</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="14">
         <v>300301</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="14">
         <v>300305</v>
       </c>
       <c r="J26" s="17">
         <v>1006</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M26" s="17">
         <v>3</v>
       </c>
-      <c r="N26" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="16">
+      <c r="N26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="14">
         <v>36</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="14">
         <v>70003940</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="16">
+      <c r="Q26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="14">
         <v>16013</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="14">
         <v>1850</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="14">
         <v>600010201</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
     </row>
-    <row r="27" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="14">
+    <row r="27" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C27" s="12">
         <v>30005</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="16">
+      <c r="D27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="14">
         <v>300401</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="14">
         <v>300405</v>
       </c>
       <c r="J27" s="17">
         <v>1006</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M27" s="17">
         <v>3</v>
       </c>
-      <c r="N27" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O27" s="16">
+      <c r="N27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27" s="14">
         <v>38</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="14">
         <v>70003950</v>
       </c>
-      <c r="Q27" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R27" s="16">
+      <c r="Q27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" s="14">
         <v>17763</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S27" s="14">
         <v>1950</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="14">
         <v>600010201</v>
       </c>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
     </row>
-    <row r="28" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="14">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C28" s="12">
         <v>40001</v>
       </c>
-      <c r="D28" s="16">
-        <v>12</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="D28" s="14">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="14">
         <v>400001</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="14">
         <v>400005</v>
       </c>
       <c r="J28" s="17">
         <v>1006</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M28" s="17">
         <v>3</v>
       </c>
-      <c r="N28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="14">
         <v>40</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="14">
         <v>70004910</v>
       </c>
-      <c r="Q28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="16">
+      <c r="Q28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="14">
         <v>19775</v>
       </c>
-      <c r="S28" s="16">
+      <c r="S28" s="14">
         <v>2050</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="14">
         <v>600010201</v>
       </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="14">
+    <row r="29" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C29" s="12">
         <v>40002</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="16">
+      <c r="D29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="14">
         <v>400101</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <v>400105</v>
       </c>
       <c r="J29" s="17">
         <v>1006</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M29" s="17">
         <v>3</v>
       </c>
-      <c r="N29" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O29" s="16">
+      <c r="N29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="O29" s="14">
         <v>42</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="14">
         <v>70004920</v>
       </c>
-      <c r="Q29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" s="16">
+      <c r="Q29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="14">
         <v>22050</v>
       </c>
-      <c r="S29" s="16">
+      <c r="S29" s="14">
         <v>2150</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="14">
         <v>600010201</v>
       </c>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="14">
+    <row r="30" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C30" s="12">
         <v>40003</v>
       </c>
-      <c r="D30" s="16">
-        <v>13</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="D30" s="14">
+        <v>4</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="14">
         <v>400201</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <v>400205</v>
       </c>
       <c r="J30" s="17">
         <v>1006</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M30" s="17">
         <v>3</v>
       </c>
-      <c r="N30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O30" s="16">
+      <c r="N30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" s="14">
         <v>44</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="14">
         <v>70004930</v>
       </c>
-      <c r="Q30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" s="16">
+      <c r="Q30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="14">
         <v>24325</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="14">
         <v>2250</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="14">
         <v>600010201</v>
       </c>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
     </row>
-    <row r="31" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="14">
+    <row r="31" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C31" s="12">
         <v>40004</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="D31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="14">
         <v>400301</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <v>400305</v>
       </c>
       <c r="J31" s="17">
         <v>1006</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M31" s="17">
         <v>3</v>
       </c>
-      <c r="N31" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O31" s="16">
+      <c r="N31" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O31" s="14">
         <v>46</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="14">
         <v>70004940</v>
       </c>
-      <c r="Q31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R31" s="16">
+      <c r="Q31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="14">
         <v>27125</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="14">
         <v>2350</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="14">
         <v>600010201</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
     </row>
-    <row r="32" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="14">
+    <row r="32" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C32" s="12">
         <v>40005</v>
       </c>
-      <c r="D32" s="16">
-        <v>14</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="D32" s="14">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="14">
         <v>400401</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="14">
         <v>400405</v>
       </c>
       <c r="J32" s="17">
         <v>1006</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M32" s="17">
         <v>3</v>
       </c>
-      <c r="N32" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O32" s="16">
+      <c r="N32" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O32" s="14">
         <v>48</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="14">
         <v>70004950</v>
       </c>
-      <c r="Q32" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" s="16">
+      <c r="Q32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" s="14">
         <v>29925</v>
       </c>
-      <c r="S32" s="16">
+      <c r="S32" s="14">
         <v>2450</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="14">
         <v>600010201</v>
       </c>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
     </row>
-    <row r="33" spans="3:23" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="14">
+    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C33" s="12">
         <v>50001</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="16">
+      <c r="D33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="14">
         <v>1001</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="14">
         <v>1005</v>
       </c>
       <c r="J33" s="17">
         <v>1006</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M33" s="17">
         <v>3</v>
       </c>
-      <c r="N33" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O33" s="16">
+      <c r="N33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O33" s="14">
         <v>50</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="14">
         <v>70002940</v>
       </c>
-      <c r="Q33" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" s="16">
+      <c r="Q33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="14">
         <v>33163</v>
       </c>
-      <c r="S33" s="16">
+      <c r="S33" s="14">
         <v>2550</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="14">
         <v>600010201</v>
       </c>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
     </row>
-    <row r="34" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="14">
+    <row r="34" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C34" s="12">
         <v>50002</v>
       </c>
-      <c r="D34" s="16">
-        <v>15</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="D34" s="14">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="14">
         <v>1001</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="14">
         <v>1005</v>
       </c>
       <c r="J34" s="17">
         <v>1006</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M34" s="17">
         <v>3</v>
       </c>
-      <c r="N34" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O34" s="16">
+      <c r="N34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" s="14">
         <v>52</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="14">
         <v>70002950</v>
       </c>
-      <c r="Q34" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" s="16">
+      <c r="Q34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34" s="14">
         <v>36838</v>
       </c>
-      <c r="S34" s="16">
+      <c r="S34" s="14">
         <v>2650</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="14">
         <v>600010201</v>
       </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
     </row>
-    <row r="35" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="14">
+    <row r="35" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C35" s="12">
         <v>50003</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="F35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="14">
         <v>1001</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <v>1005</v>
       </c>
       <c r="J35" s="17">
         <v>1006</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M35" s="17">
         <v>3</v>
       </c>
-      <c r="N35" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O35" s="16">
+      <c r="N35" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O35" s="14">
         <v>54</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="14">
         <v>70001910</v>
       </c>
-      <c r="Q35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R35" s="16">
+      <c r="Q35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" s="14">
         <v>40513</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="14">
         <v>2750</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="14">
         <v>600010201</v>
       </c>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
     </row>
-    <row r="36" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="14">
+    <row r="36" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C36" s="12">
         <v>50004</v>
       </c>
-      <c r="D36" s="16">
-        <v>16</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="14">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="16">
+      <c r="F36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="14">
         <v>1001</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="14">
         <v>1005</v>
       </c>
       <c r="J36" s="17">
         <v>1006</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M36" s="17">
         <v>3</v>
       </c>
-      <c r="N36" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O36" s="16">
+      <c r="N36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" s="14">
         <v>56</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="14">
         <v>70001920</v>
       </c>
-      <c r="Q36" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R36" s="16">
+      <c r="Q36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R36" s="14">
         <v>45063</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="14">
         <v>2850</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="14">
         <v>600010201</v>
       </c>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
     </row>
-    <row r="37" spans="3:23" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="14">
+    <row r="37" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+      <c r="C37" s="12">
         <v>50005</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="16">
+      <c r="F37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="14">
         <v>1001</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="14">
         <v>1005</v>
       </c>
       <c r="J37" s="17">
         <v>1006</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M37" s="17">
         <v>3</v>
       </c>
-      <c r="N37" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O37" s="16">
+      <c r="N37" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O37" s="14">
         <v>58</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="14">
         <v>70001930</v>
       </c>
-      <c r="Q37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R37" s="16">
+      <c r="Q37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="14">
         <v>49613</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S37" s="14">
         <v>2950</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T37" s="14">
         <v>600010201</v>
       </c>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
     </row>
-    <row r="38" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="20.1" customHeight="1" spans="4:4">
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" ht="20.1" customHeight="1"/>
+    <row r="40" ht="20.1" customHeight="1"/>
+    <row r="41" ht="20.1" customHeight="1"/>
+    <row r="42" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A244D-1782-44F3-8B21-A578FC1B02C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellGenerateProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -88,18 +81,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -453,19 +446,26 @@
   </si>
   <si>
     <t>第五章地图5</t>
+  </si>
+  <si>
+    <t>ImgBig_12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImgBig_13</t>
+  </si>
+  <si>
+    <t>ImgBig_14</t>
+  </si>
+  <si>
+    <t>ImgBig_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,150 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -670,8 +526,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,204 +563,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149388103885006"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14935758537553026"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -949,253 +634,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1255,138 +698,29 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1409,146 +743,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1571,16 +775,48 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="宋体"/>
         <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1603,48 +839,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.149937437055574"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="hair">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1667,16 +871,146 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1697,11 +1031,78 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1738,27 +1139,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:P5" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="C4:P5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" uniqueName="ID" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="11">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" name="MapType" uniqueName="2"/>
-    <tableColumn id="2" name="ChapterName" uniqueName="ItemName" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="2" name="MapType"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="10">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" name="Music" uniqueName="4" dataDxfId="2"/>
-    <tableColumn id="6" name="InitSize" uniqueName="5" dataDxfId="3"/>
-    <tableColumn id="5" name="StartArea" uniqueName="6" dataDxfId="4"/>
-    <tableColumn id="3" name="EndArea" uniqueName="7" dataDxfId="5"/>
-    <tableColumn id="7" name="StopArea" uniqueName="8" dataDxfId="6"/>
-    <tableColumn id="12" name="SpecialRoomPro" uniqueName="9" dataDxfId="7"/>
-    <tableColumn id="11" name="SpecialRoom" uniqueName="10" dataDxfId="8"/>
-    <tableColumn id="8" name="StopAreaNum" uniqueName="11"/>
-    <tableColumn id="4" name="RandomArea" uniqueName="12" dataDxfId="9"/>
-    <tableColumn id="9" name="EnterLv" uniqueName="13" dataDxfId="10"/>
-    <tableColumn id="10" name="BossIcon" uniqueName="14" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="4" name="Music" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="11" name="StopAreaNum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2045,19 +1446,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="9" width="16.75" customWidth="1"/>
@@ -2070,7 +1471,7 @@
     <col min="23" max="23" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="3" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +1536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="4" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +1601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="5" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2265,7 +1666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="6" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="8">
         <v>1000001</v>
       </c>
@@ -2330,7 +1731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="7" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">
         <v>1000002</v>
       </c>
@@ -2385,8 +1786,8 @@
       <c r="T7" s="9">
         <v>600010201</v>
       </c>
-      <c r="U7" s="20" t="s">
-        <v>50</v>
+      <c r="U7" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="V7" s="20">
         <v>402065</v>
@@ -2395,7 +1796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="8" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="8">
         <v>1000003</v>
       </c>
@@ -2451,7 +1852,7 @@
         <v>600010201</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="V8" s="20">
         <v>403065</v>
@@ -2460,7 +1861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="9" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="8">
         <v>1000004</v>
       </c>
@@ -2515,8 +1916,8 @@
       <c r="T9" s="9">
         <v>600010201</v>
       </c>
-      <c r="U9" s="20" t="s">
-        <v>50</v>
+      <c r="U9" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="V9" s="20">
         <v>404065</v>
@@ -2525,7 +1926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="10" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="8">
         <v>1000005</v>
       </c>
@@ -2581,7 +1982,7 @@
         <v>600010201</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="V10" s="20">
         <v>405065</v>
@@ -2590,7 +1991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="11" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="12">
         <v>10001</v>
       </c>
@@ -2649,7 +2050,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
     </row>
-    <row r="12" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="12" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="12">
         <v>10002</v>
       </c>
@@ -2708,7 +2109,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="13" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="12">
         <v>10003</v>
       </c>
@@ -2767,7 +2168,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
     </row>
-    <row r="14" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="14" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="12">
         <v>10004</v>
       </c>
@@ -2826,7 +2227,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="15" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="12">
         <v>10005</v>
       </c>
@@ -2885,7 +2286,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
     </row>
-    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="16" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="12">
         <v>10006</v>
       </c>
@@ -2944,7 +2345,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="17" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="12">
         <v>10007</v>
       </c>
@@ -3003,7 +2404,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
     </row>
-    <row r="18" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="18" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="12">
         <v>20001</v>
       </c>
@@ -3062,7 +2463,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="19" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="12">
         <v>20002</v>
       </c>
@@ -3121,7 +2522,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
     </row>
-    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="20" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="12">
         <v>20003</v>
       </c>
@@ -3180,7 +2581,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
     </row>
-    <row r="21" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="21" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="12">
         <v>20004</v>
       </c>
@@ -3239,7 +2640,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
     </row>
-    <row r="22" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="22" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="12">
         <v>20005</v>
       </c>
@@ -3298,7 +2699,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="23" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="12">
         <v>30001</v>
       </c>
@@ -3357,7 +2758,7 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
-    <row r="24" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="24" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="12">
         <v>30002</v>
       </c>
@@ -3416,7 +2817,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
     </row>
-    <row r="25" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="25" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="12">
         <v>30003</v>
       </c>
@@ -3475,7 +2876,7 @@
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
     </row>
-    <row r="26" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="26" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="12">
         <v>30004</v>
       </c>
@@ -3534,7 +2935,7 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
-    <row r="27" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="27" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="12">
         <v>30005</v>
       </c>
@@ -3593,7 +2994,7 @@
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="28" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="12">
         <v>40001</v>
       </c>
@@ -3652,7 +3053,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="29" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="12">
         <v>40002</v>
       </c>
@@ -3711,7 +3112,7 @@
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="30" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="12">
         <v>40003</v>
       </c>
@@ -3770,7 +3171,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
     </row>
-    <row r="31" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="31" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="12">
         <v>40004</v>
       </c>
@@ -3829,7 +3230,7 @@
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
     </row>
-    <row r="32" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="32" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="12">
         <v>40005</v>
       </c>
@@ -3888,7 +3289,7 @@
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="33" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="12">
         <v>50001</v>
       </c>
@@ -3947,7 +3348,7 @@
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
     </row>
-    <row r="34" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="34" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="12">
         <v>50002</v>
       </c>
@@ -4006,7 +3407,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
     </row>
-    <row r="35" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="35" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="12">
         <v>50003</v>
       </c>
@@ -4065,7 +3466,7 @@
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
     </row>
-    <row r="36" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="36" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="12">
         <v>50004</v>
       </c>
@@ -4124,7 +3525,7 @@
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
     </row>
-    <row r="37" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="37" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="12">
         <v>50005</v>
       </c>
@@ -4183,20 +3584,20 @@
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="4:4">
+    <row r="38" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="14"/>
     </row>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
+    <row r="39" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A244D-1782-44F3-8B21-A578FC1B02C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF735CB-C71F-4BEB-8BDA-E2928C6C2DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -459,13 +461,24 @@
   </si>
   <si>
     <t>ImgBig_15</t>
+  </si>
+  <si>
+    <t>loading图</t>
+  </si>
+  <si>
+    <t>LoadingRes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +490,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -484,6 +498,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -491,6 +506,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -499,12 +515,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -512,18 +530,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -541,8 +562,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14935758537553026"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14938810388500626"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -704,11 +738,54 @@
     <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1139,27 +1216,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:P5" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="C4:P5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:Q5" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="C4:Q5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="Id" dataDxfId="12">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="2" name="MapType"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ItemName" name="ChapterName" dataDxfId="11">
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="4" name="Music" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="4" name="Music" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{DE311879-3AF7-423D-868C-4DFAA6F6A5C0}" uniqueName="15" name="LoadingRes" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="11" name="StopAreaNum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1452,26 +1530,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:W42"/>
+  <dimension ref="C3:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="33.625" customWidth="1"/>
-    <col min="15" max="16" width="17.25" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="21" width="17.25" customWidth="1"/>
-    <col min="22" max="22" width="12.75" customWidth="1"/>
-    <col min="23" max="23" width="17.875" customWidth="1"/>
+    <col min="5" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="14" width="15.625" customWidth="1"/>
+    <col min="15" max="15" width="33.625" customWidth="1"/>
+    <col min="16" max="17" width="17.25" customWidth="1"/>
+    <col min="18" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="22" width="17.25" customWidth="1"/>
+    <col min="23" max="23" width="12.75" customWidth="1"/>
+    <col min="24" max="24" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1485,58 +1563,61 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="V3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1549,59 +1630,62 @@
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1615,10 +1699,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>39</v>
@@ -1627,28 +1711,28 @@
         <v>39</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>39</v>
@@ -1657,16 +1741,19 @@
         <v>39</v>
       </c>
       <c r="U5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="8">
         <v>1000001</v>
       </c>
@@ -1679,59 +1766,62 @@
       <c r="F6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="23">
+        <v>101</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>1001101</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>1001105</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <v>1006</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="15">
         <v>3</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <v>12</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>1418</v>
       </c>
-      <c r="S6" s="9">
+      <c r="T6" s="9">
         <v>100</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>600010201</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="V6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="20">
+      <c r="W6" s="20">
         <v>401065</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">
         <v>1000002</v>
       </c>
@@ -1744,59 +1834,62 @@
       <c r="F7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="23">
+        <v>102</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>1002101</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>1002105</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <v>1006</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="15">
         <v>3</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="O7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>20</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>1418</v>
       </c>
-      <c r="S7" s="9">
+      <c r="T7" s="9">
         <v>100</v>
       </c>
-      <c r="T7" s="9">
+      <c r="U7" s="9">
         <v>600010201</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="V7" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="V7" s="20">
+      <c r="W7" s="20">
         <v>402065</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="8">
         <v>1000003</v>
       </c>
@@ -1809,59 +1902,62 @@
       <c r="F8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="23">
+        <v>103</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>1003101</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>1003105</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <v>1006</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="15">
         <v>3</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>30</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>1418</v>
       </c>
-      <c r="S8" s="9">
+      <c r="T8" s="9">
         <v>100</v>
       </c>
-      <c r="T8" s="9">
+      <c r="U8" s="9">
         <v>600010201</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="V8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="V8" s="20">
+      <c r="W8" s="20">
         <v>403065</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="8">
         <v>1000004</v>
       </c>
@@ -1874,59 +1970,62 @@
       <c r="F9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="23">
+        <v>104</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>1004101</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>1004105</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15">
         <v>1006</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="15">
         <v>3</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="O9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>40</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <v>1418</v>
       </c>
-      <c r="S9" s="9">
+      <c r="T9" s="9">
         <v>100</v>
       </c>
-      <c r="T9" s="9">
+      <c r="U9" s="9">
         <v>600010201</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="V9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="V9" s="20">
+      <c r="W9" s="20">
         <v>404065</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="8">
         <v>1000005</v>
       </c>
@@ -1939,59 +2038,62 @@
       <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="23">
+        <v>105</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>1005101</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>1005105</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <v>1006</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="15">
         <v>3</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>50</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <v>70001910</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <v>1418</v>
       </c>
-      <c r="S10" s="9">
+      <c r="T10" s="9">
         <v>100</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
         <v>600010201</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="V10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="V10" s="20">
+      <c r="W10" s="20">
         <v>405065</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="12">
         <v>10001</v>
       </c>
@@ -2005,52 +2107,55 @@
         <v>44</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="14">
+      <c r="I11" s="14">
         <v>100101</v>
       </c>
-      <c r="I11" s="14">
+      <c r="J11" s="14">
         <v>100105</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>1006</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="17">
+      <c r="N11" s="17">
         <v>3</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="14">
+      <c r="P11" s="14">
         <v>1</v>
       </c>
-      <c r="P11" s="14">
+      <c r="Q11" s="14">
         <v>70001910</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="R11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="14">
+      <c r="S11" s="14">
         <v>1418</v>
       </c>
-      <c r="S11" s="14">
+      <c r="T11" s="14">
         <v>100</v>
       </c>
-      <c r="T11" s="14">
+      <c r="U11" s="14">
         <v>600010201</v>
       </c>
-      <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
     </row>
-    <row r="12" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="12">
         <v>10002</v>
       </c>
@@ -2064,52 +2169,55 @@
         <v>44</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="14">
+      <c r="I12" s="14">
         <v>100201</v>
       </c>
-      <c r="I12" s="14">
+      <c r="J12" s="14">
         <v>100206</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="17">
         <v>1006</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="M12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="17">
+      <c r="N12" s="17">
         <v>3</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="14">
+      <c r="P12" s="14">
         <v>3</v>
       </c>
-      <c r="P12" s="14">
+      <c r="Q12" s="14">
         <v>70001920</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="R12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="14">
+      <c r="S12" s="14">
         <v>1553</v>
       </c>
-      <c r="S12" s="14">
+      <c r="T12" s="14">
         <v>200</v>
       </c>
-      <c r="T12" s="14">
+      <c r="U12" s="14">
         <v>600010201</v>
       </c>
-      <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="12">
         <v>10003</v>
       </c>
@@ -2123,52 +2231,55 @@
         <v>44</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="14">
+      <c r="I13" s="14">
         <v>100301</v>
       </c>
-      <c r="I13" s="14">
+      <c r="J13" s="14">
         <v>100305</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>1006</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="M13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="17">
+      <c r="N13" s="17">
         <v>3</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="14">
+      <c r="P13" s="14">
         <v>5</v>
       </c>
-      <c r="P13" s="14">
+      <c r="Q13" s="14">
         <v>70001930</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="R13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="14">
+      <c r="S13" s="14">
         <v>2015</v>
       </c>
-      <c r="S13" s="14">
+      <c r="T13" s="14">
         <v>300</v>
       </c>
-      <c r="T13" s="14">
+      <c r="U13" s="14">
         <v>600010201</v>
       </c>
-      <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
     </row>
-    <row r="14" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="12">
         <v>10004</v>
       </c>
@@ -2182,52 +2293,55 @@
         <v>44</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="14">
+      <c r="I14" s="14">
         <v>100401</v>
       </c>
-      <c r="I14" s="14">
+      <c r="J14" s="14">
         <v>100405</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K14" s="17">
         <v>1006</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="M14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="17">
+      <c r="N14" s="17">
         <v>3</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="14">
+      <c r="P14" s="14">
         <v>8</v>
       </c>
-      <c r="P14" s="14">
+      <c r="Q14" s="14">
         <v>70001940</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="14">
+      <c r="S14" s="14">
         <v>2800</v>
       </c>
-      <c r="S14" s="14">
+      <c r="T14" s="14">
         <v>450</v>
       </c>
-      <c r="T14" s="14">
+      <c r="U14" s="14">
         <v>600010201</v>
       </c>
-      <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
     </row>
-    <row r="15" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="12">
         <v>10005</v>
       </c>
@@ -2241,52 +2355,55 @@
         <v>44</v>
       </c>
       <c r="G15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="14">
+      <c r="I15" s="14">
         <v>100501</v>
       </c>
-      <c r="I15" s="14">
+      <c r="J15" s="14">
         <v>100505</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>1006</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="M15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="17">
+      <c r="N15" s="17">
         <v>3</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="14">
+      <c r="P15" s="14">
         <v>10</v>
       </c>
-      <c r="P15" s="14">
+      <c r="Q15" s="14">
         <v>70001950</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="R15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="14">
+      <c r="S15" s="14">
         <v>3238</v>
       </c>
-      <c r="S15" s="14">
+      <c r="T15" s="14">
         <v>550</v>
       </c>
-      <c r="T15" s="14">
+      <c r="U15" s="14">
         <v>600010201</v>
       </c>
-      <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
     </row>
-    <row r="16" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="12">
         <v>10006</v>
       </c>
@@ -2300,52 +2417,55 @@
         <v>44</v>
       </c>
       <c r="G16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="14">
+      <c r="I16" s="14">
         <v>100601</v>
       </c>
-      <c r="I16" s="14">
+      <c r="J16" s="14">
         <v>100605</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>1006</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="L16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="M16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="17">
+      <c r="N16" s="17">
         <v>3</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="O16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="14">
+      <c r="P16" s="14">
         <v>12</v>
       </c>
-      <c r="P16" s="14">
+      <c r="Q16" s="14">
         <v>70001960</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="14">
+      <c r="S16" s="14">
         <v>3763</v>
       </c>
-      <c r="S16" s="14">
+      <c r="T16" s="14">
         <v>650</v>
       </c>
-      <c r="T16" s="14">
+      <c r="U16" s="14">
         <v>600010201</v>
       </c>
-      <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
     </row>
-    <row r="17" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="12">
         <v>10007</v>
       </c>
@@ -2359,52 +2479,55 @@
         <v>44</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="14">
+      <c r="I17" s="14">
         <v>100701</v>
       </c>
-      <c r="I17" s="14">
+      <c r="J17" s="14">
         <v>100705</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>1006</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="L17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="M17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="17">
+      <c r="N17" s="17">
         <v>3</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="14">
+      <c r="P17" s="14">
         <v>15</v>
       </c>
-      <c r="P17" s="14">
+      <c r="Q17" s="14">
         <v>70001970</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="R17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="14">
+      <c r="S17" s="14">
         <v>4550</v>
       </c>
-      <c r="S17" s="14">
+      <c r="T17" s="14">
         <v>800</v>
       </c>
-      <c r="T17" s="14">
+      <c r="U17" s="14">
         <v>600010201</v>
       </c>
-      <c r="U17" s="14"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
     </row>
-    <row r="18" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="12">
         <v>20001</v>
       </c>
@@ -2418,52 +2541,55 @@
         <v>44</v>
       </c>
       <c r="G18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="14">
+      <c r="I18" s="14">
         <v>200001</v>
       </c>
-      <c r="I18" s="14">
+      <c r="J18" s="14">
         <v>200005</v>
       </c>
-      <c r="J18" s="17">
+      <c r="K18" s="17">
         <v>1006</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="M18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M18" s="17">
+      <c r="N18" s="17">
         <v>3</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="O18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="14">
+      <c r="P18" s="14">
         <v>18</v>
       </c>
-      <c r="P18" s="14">
+      <c r="Q18" s="14">
         <v>70002910</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="R18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="14">
+      <c r="S18" s="14">
         <v>5600</v>
       </c>
-      <c r="S18" s="14">
+      <c r="T18" s="14">
         <v>950</v>
       </c>
-      <c r="T18" s="14">
+      <c r="U18" s="14">
         <v>600010201</v>
       </c>
-      <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
     </row>
-    <row r="19" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="12">
         <v>20002</v>
       </c>
@@ -2477,52 +2603,55 @@
         <v>44</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="14">
+      <c r="I19" s="14">
         <v>200101</v>
       </c>
-      <c r="I19" s="14">
+      <c r="J19" s="14">
         <v>200105</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>1006</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="M19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="17">
+      <c r="N19" s="17">
         <v>3</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="O19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O19" s="14">
+      <c r="P19" s="14">
         <v>21</v>
       </c>
-      <c r="P19" s="14">
+      <c r="Q19" s="14">
         <v>70002920</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="R19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="14">
+      <c r="S19" s="14">
         <v>6825</v>
       </c>
-      <c r="S19" s="14">
+      <c r="T19" s="14">
         <v>1100</v>
       </c>
-      <c r="T19" s="14">
+      <c r="U19" s="14">
         <v>600010201</v>
       </c>
-      <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
     </row>
-    <row r="20" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="12">
         <v>20003</v>
       </c>
@@ -2536,52 +2665,55 @@
         <v>44</v>
       </c>
       <c r="G20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="14">
+      <c r="I20" s="14">
         <v>200201</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J20" s="14">
         <v>200205</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>1006</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="M20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="17">
+      <c r="N20" s="17">
         <v>3</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="O20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="O20" s="14">
+      <c r="P20" s="14">
         <v>24</v>
       </c>
-      <c r="P20" s="14">
+      <c r="Q20" s="14">
         <v>70002930</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="R20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="14">
+      <c r="S20" s="14">
         <v>8138</v>
       </c>
-      <c r="S20" s="14">
+      <c r="T20" s="14">
         <v>1250</v>
       </c>
-      <c r="T20" s="14">
+      <c r="U20" s="14">
         <v>600010201</v>
       </c>
-      <c r="U20" s="14"/>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
     </row>
-    <row r="21" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="12">
         <v>20004</v>
       </c>
@@ -2595,52 +2727,55 @@
         <v>44</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="14">
+      <c r="I21" s="14">
         <v>200301</v>
       </c>
-      <c r="I21" s="14">
+      <c r="J21" s="14">
         <v>200305</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>1006</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>3</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="O21" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="14">
+      <c r="P21" s="14">
         <v>26</v>
       </c>
-      <c r="P21" s="14">
+      <c r="Q21" s="14">
         <v>70002940</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="R21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="14">
+      <c r="S21" s="14">
         <v>9188</v>
       </c>
-      <c r="S21" s="14">
+      <c r="T21" s="14">
         <v>1350</v>
       </c>
-      <c r="T21" s="14">
+      <c r="U21" s="14">
         <v>600010201</v>
       </c>
-      <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
     </row>
-    <row r="22" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="12">
         <v>20005</v>
       </c>
@@ -2654,52 +2789,55 @@
         <v>44</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="14">
+      <c r="I22" s="14">
         <v>200401</v>
       </c>
-      <c r="I22" s="14">
+      <c r="J22" s="14">
         <v>200405</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K22" s="17">
         <v>1006</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="L22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="M22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="17">
+      <c r="N22" s="17">
         <v>3</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="O22" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="14">
+      <c r="P22" s="14">
         <v>28</v>
       </c>
-      <c r="P22" s="14">
+      <c r="Q22" s="14">
         <v>70002950</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="R22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="14">
+      <c r="S22" s="14">
         <v>10238</v>
       </c>
-      <c r="S22" s="14">
+      <c r="T22" s="14">
         <v>1450</v>
       </c>
-      <c r="T22" s="14">
+      <c r="U22" s="14">
         <v>600010201</v>
       </c>
-      <c r="U22" s="14"/>
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
     </row>
-    <row r="23" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="12">
         <v>30001</v>
       </c>
@@ -2713,52 +2851,55 @@
         <v>44</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="14">
+      <c r="I23" s="14">
         <v>300001</v>
       </c>
-      <c r="I23" s="14">
+      <c r="J23" s="14">
         <v>300005</v>
       </c>
-      <c r="J23" s="17">
+      <c r="K23" s="17">
         <v>1006</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="17">
+      <c r="N23" s="17">
         <v>3</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="O23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="14">
+      <c r="P23" s="14">
         <v>30</v>
       </c>
-      <c r="P23" s="14">
+      <c r="Q23" s="14">
         <v>70003910</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="R23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="14">
+      <c r="S23" s="14">
         <v>11463</v>
       </c>
-      <c r="S23" s="14">
+      <c r="T23" s="14">
         <v>1550</v>
       </c>
-      <c r="T23" s="14">
+      <c r="U23" s="14">
         <v>600010201</v>
       </c>
-      <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
     </row>
-    <row r="24" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="12">
         <v>30002</v>
       </c>
@@ -2772,52 +2913,55 @@
         <v>44</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="14">
+      <c r="I24" s="14">
         <v>300101</v>
       </c>
-      <c r="I24" s="14">
+      <c r="J24" s="14">
         <v>300105</v>
       </c>
-      <c r="J24" s="17">
+      <c r="K24" s="17">
         <v>1006</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="L24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="M24" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="17">
+      <c r="N24" s="17">
         <v>3</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="O24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O24" s="14">
+      <c r="P24" s="14">
         <v>32</v>
       </c>
-      <c r="P24" s="14">
+      <c r="Q24" s="14">
         <v>70003920</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="R24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="14">
+      <c r="S24" s="14">
         <v>12863</v>
       </c>
-      <c r="S24" s="14">
+      <c r="T24" s="14">
         <v>1650</v>
       </c>
-      <c r="T24" s="14">
+      <c r="U24" s="14">
         <v>600010201</v>
       </c>
-      <c r="U24" s="14"/>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
     </row>
-    <row r="25" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="12">
         <v>30003</v>
       </c>
@@ -2831,52 +2975,55 @@
         <v>44</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="14">
+      <c r="I25" s="14">
         <v>300201</v>
       </c>
-      <c r="I25" s="14">
+      <c r="J25" s="14">
         <v>300205</v>
       </c>
-      <c r="J25" s="17">
+      <c r="K25" s="17">
         <v>1006</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="L25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="M25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="17">
+      <c r="N25" s="17">
         <v>3</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="O25" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="O25" s="14">
+      <c r="P25" s="14">
         <v>34</v>
       </c>
-      <c r="P25" s="14">
+      <c r="Q25" s="14">
         <v>70003930</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="R25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="14">
+      <c r="S25" s="14">
         <v>14263</v>
       </c>
-      <c r="S25" s="14">
+      <c r="T25" s="14">
         <v>1750</v>
       </c>
-      <c r="T25" s="14">
+      <c r="U25" s="14">
         <v>600010201</v>
       </c>
-      <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
     </row>
-    <row r="26" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="12">
         <v>30004</v>
       </c>
@@ -2890,52 +3037,55 @@
         <v>44</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="14">
+      <c r="I26" s="14">
         <v>300301</v>
       </c>
-      <c r="I26" s="14">
+      <c r="J26" s="14">
         <v>300305</v>
       </c>
-      <c r="J26" s="17">
+      <c r="K26" s="17">
         <v>1006</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="L26" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="M26" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M26" s="17">
+      <c r="N26" s="17">
         <v>3</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="O26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="14">
+      <c r="P26" s="14">
         <v>36</v>
       </c>
-      <c r="P26" s="14">
+      <c r="Q26" s="14">
         <v>70003940</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="R26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R26" s="14">
+      <c r="S26" s="14">
         <v>16013</v>
       </c>
-      <c r="S26" s="14">
+      <c r="T26" s="14">
         <v>1850</v>
       </c>
-      <c r="T26" s="14">
+      <c r="U26" s="14">
         <v>600010201</v>
       </c>
-      <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
     </row>
-    <row r="27" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="12">
         <v>30005</v>
       </c>
@@ -2949,52 +3099,55 @@
         <v>44</v>
       </c>
       <c r="G27" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="14">
+      <c r="I27" s="14">
         <v>300401</v>
       </c>
-      <c r="I27" s="14">
+      <c r="J27" s="14">
         <v>300405</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>1006</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="M27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="17">
+      <c r="N27" s="17">
         <v>3</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="O27" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O27" s="14">
+      <c r="P27" s="14">
         <v>38</v>
       </c>
-      <c r="P27" s="14">
+      <c r="Q27" s="14">
         <v>70003950</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="R27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R27" s="14">
+      <c r="S27" s="14">
         <v>17763</v>
       </c>
-      <c r="S27" s="14">
+      <c r="T27" s="14">
         <v>1950</v>
       </c>
-      <c r="T27" s="14">
+      <c r="U27" s="14">
         <v>600010201</v>
       </c>
-      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
     </row>
-    <row r="28" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="12">
         <v>40001</v>
       </c>
@@ -3008,52 +3161,55 @@
         <v>44</v>
       </c>
       <c r="G28" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="14">
+      <c r="I28" s="14">
         <v>400001</v>
       </c>
-      <c r="I28" s="14">
+      <c r="J28" s="14">
         <v>400005</v>
       </c>
-      <c r="J28" s="17">
+      <c r="K28" s="17">
         <v>1006</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="L28" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="M28" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="17">
+      <c r="N28" s="17">
         <v>3</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="O28" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="14">
+      <c r="P28" s="14">
         <v>40</v>
       </c>
-      <c r="P28" s="14">
+      <c r="Q28" s="14">
         <v>70004910</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="R28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="14">
+      <c r="S28" s="14">
         <v>19775</v>
       </c>
-      <c r="S28" s="14">
+      <c r="T28" s="14">
         <v>2050</v>
       </c>
-      <c r="T28" s="14">
+      <c r="U28" s="14">
         <v>600010201</v>
       </c>
-      <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
     </row>
-    <row r="29" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="12">
         <v>40002</v>
       </c>
@@ -3067,52 +3223,55 @@
         <v>44</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="14">
+      <c r="I29" s="14">
         <v>400101</v>
       </c>
-      <c r="I29" s="14">
+      <c r="J29" s="14">
         <v>400105</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>1006</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="L29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="M29" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="17">
+      <c r="N29" s="17">
         <v>3</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="O29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="14">
+      <c r="P29" s="14">
         <v>42</v>
       </c>
-      <c r="P29" s="14">
+      <c r="Q29" s="14">
         <v>70004920</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="R29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R29" s="14">
+      <c r="S29" s="14">
         <v>22050</v>
       </c>
-      <c r="S29" s="14">
+      <c r="T29" s="14">
         <v>2150</v>
       </c>
-      <c r="T29" s="14">
+      <c r="U29" s="14">
         <v>600010201</v>
       </c>
-      <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
     </row>
-    <row r="30" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="12">
         <v>40003</v>
       </c>
@@ -3126,52 +3285,55 @@
         <v>44</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="14">
+      <c r="I30" s="14">
         <v>400201</v>
       </c>
-      <c r="I30" s="14">
+      <c r="J30" s="14">
         <v>400205</v>
       </c>
-      <c r="J30" s="17">
+      <c r="K30" s="17">
         <v>1006</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="L30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="M30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M30" s="17">
+      <c r="N30" s="17">
         <v>3</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="O30" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="14">
+      <c r="P30" s="14">
         <v>44</v>
       </c>
-      <c r="P30" s="14">
+      <c r="Q30" s="14">
         <v>70004930</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="R30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R30" s="14">
+      <c r="S30" s="14">
         <v>24325</v>
       </c>
-      <c r="S30" s="14">
+      <c r="T30" s="14">
         <v>2250</v>
       </c>
-      <c r="T30" s="14">
+      <c r="U30" s="14">
         <v>600010201</v>
       </c>
-      <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
     </row>
-    <row r="31" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="12">
         <v>40004</v>
       </c>
@@ -3185,52 +3347,55 @@
         <v>44</v>
       </c>
       <c r="G31" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="14">
+      <c r="I31" s="14">
         <v>400301</v>
       </c>
-      <c r="I31" s="14">
+      <c r="J31" s="14">
         <v>400305</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>1006</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="L31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="M31" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="17">
+      <c r="N31" s="17">
         <v>3</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="O31" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O31" s="14">
+      <c r="P31" s="14">
         <v>46</v>
       </c>
-      <c r="P31" s="14">
+      <c r="Q31" s="14">
         <v>70004940</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="R31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="14">
+      <c r="S31" s="14">
         <v>27125</v>
       </c>
-      <c r="S31" s="14">
+      <c r="T31" s="14">
         <v>2350</v>
       </c>
-      <c r="T31" s="14">
+      <c r="U31" s="14">
         <v>600010201</v>
       </c>
-      <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
     </row>
-    <row r="32" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="12">
         <v>40005</v>
       </c>
@@ -3244,52 +3409,55 @@
         <v>44</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="14">
+      <c r="I32" s="14">
         <v>400401</v>
       </c>
-      <c r="I32" s="14">
+      <c r="J32" s="14">
         <v>400405</v>
       </c>
-      <c r="J32" s="17">
+      <c r="K32" s="17">
         <v>1006</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="L32" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="M32" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M32" s="17">
+      <c r="N32" s="17">
         <v>3</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="O32" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O32" s="14">
+      <c r="P32" s="14">
         <v>48</v>
       </c>
-      <c r="P32" s="14">
+      <c r="Q32" s="14">
         <v>70004950</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="R32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R32" s="14">
+      <c r="S32" s="14">
         <v>29925</v>
       </c>
-      <c r="S32" s="14">
+      <c r="T32" s="14">
         <v>2450</v>
       </c>
-      <c r="T32" s="14">
+      <c r="U32" s="14">
         <v>600010201</v>
       </c>
-      <c r="U32" s="14"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
     </row>
-    <row r="33" spans="3:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="12">
         <v>50001</v>
       </c>
@@ -3303,52 +3471,55 @@
         <v>44</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="14">
+      <c r="I33" s="14">
         <v>1001</v>
       </c>
-      <c r="I33" s="14">
+      <c r="J33" s="14">
         <v>1005</v>
       </c>
-      <c r="J33" s="17">
+      <c r="K33" s="17">
         <v>1006</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="L33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="M33" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M33" s="17">
+      <c r="N33" s="17">
         <v>3</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="O33" s="14">
+      <c r="P33" s="14">
         <v>50</v>
       </c>
-      <c r="P33" s="14">
+      <c r="Q33" s="14">
         <v>70002940</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="R33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R33" s="14">
+      <c r="S33" s="14">
         <v>33163</v>
       </c>
-      <c r="S33" s="14">
+      <c r="T33" s="14">
         <v>2550</v>
       </c>
-      <c r="T33" s="14">
+      <c r="U33" s="14">
         <v>600010201</v>
       </c>
-      <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
     </row>
-    <row r="34" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="12">
         <v>50002</v>
       </c>
@@ -3362,52 +3533,55 @@
         <v>44</v>
       </c>
       <c r="G34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="14">
+      <c r="I34" s="14">
         <v>1001</v>
       </c>
-      <c r="I34" s="14">
+      <c r="J34" s="14">
         <v>1005</v>
       </c>
-      <c r="J34" s="17">
+      <c r="K34" s="17">
         <v>1006</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="L34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="M34" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M34" s="17">
+      <c r="N34" s="17">
         <v>3</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="O34" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O34" s="14">
+      <c r="P34" s="14">
         <v>52</v>
       </c>
-      <c r="P34" s="14">
+      <c r="Q34" s="14">
         <v>70002950</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="R34" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R34" s="14">
+      <c r="S34" s="14">
         <v>36838</v>
       </c>
-      <c r="S34" s="14">
+      <c r="T34" s="14">
         <v>2650</v>
       </c>
-      <c r="T34" s="14">
+      <c r="U34" s="14">
         <v>600010201</v>
       </c>
-      <c r="U34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
     </row>
-    <row r="35" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="12">
         <v>50003</v>
       </c>
@@ -3421,52 +3595,55 @@
         <v>44</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="14">
+      <c r="I35" s="14">
         <v>1001</v>
       </c>
-      <c r="I35" s="14">
+      <c r="J35" s="14">
         <v>1005</v>
       </c>
-      <c r="J35" s="17">
+      <c r="K35" s="17">
         <v>1006</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="L35" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="M35" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M35" s="17">
+      <c r="N35" s="17">
         <v>3</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="O35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O35" s="14">
+      <c r="P35" s="14">
         <v>54</v>
       </c>
-      <c r="P35" s="14">
+      <c r="Q35" s="14">
         <v>70001910</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="R35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R35" s="14">
+      <c r="S35" s="14">
         <v>40513</v>
       </c>
-      <c r="S35" s="14">
+      <c r="T35" s="14">
         <v>2750</v>
       </c>
-      <c r="T35" s="14">
+      <c r="U35" s="14">
         <v>600010201</v>
       </c>
-      <c r="U35" s="14"/>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
     </row>
-    <row r="36" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="12">
         <v>50004</v>
       </c>
@@ -3480,52 +3657,55 @@
         <v>44</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="14">
+      <c r="I36" s="14">
         <v>1001</v>
       </c>
-      <c r="I36" s="14">
+      <c r="J36" s="14">
         <v>1005</v>
       </c>
-      <c r="J36" s="17">
+      <c r="K36" s="17">
         <v>1006</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="L36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="M36" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M36" s="17">
+      <c r="N36" s="17">
         <v>3</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="O36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O36" s="14">
+      <c r="P36" s="14">
         <v>56</v>
       </c>
-      <c r="P36" s="14">
+      <c r="Q36" s="14">
         <v>70001920</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="R36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R36" s="14">
+      <c r="S36" s="14">
         <v>45063</v>
       </c>
-      <c r="S36" s="14">
+      <c r="T36" s="14">
         <v>2850</v>
       </c>
-      <c r="T36" s="14">
+      <c r="U36" s="14">
         <v>600010201</v>
       </c>
-      <c r="U36" s="14"/>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
     </row>
-    <row r="37" spans="3:23" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="12">
         <v>50005</v>
       </c>
@@ -3539,58 +3719,59 @@
         <v>44</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="14">
+      <c r="I37" s="14">
         <v>1001</v>
       </c>
-      <c r="I37" s="14">
+      <c r="J37" s="14">
         <v>1005</v>
       </c>
-      <c r="J37" s="17">
+      <c r="K37" s="17">
         <v>1006</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="L37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="M37" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="17">
+      <c r="N37" s="17">
         <v>3</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="O37" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O37" s="14">
+      <c r="P37" s="14">
         <v>58</v>
       </c>
-      <c r="P37" s="14">
+      <c r="Q37" s="14">
         <v>70001930</v>
       </c>
-      <c r="Q37" s="13" t="s">
+      <c r="R37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R37" s="14">
+      <c r="S37" s="14">
         <v>49613</v>
       </c>
-      <c r="S37" s="14">
+      <c r="T37" s="14">
         <v>2950</v>
       </c>
-      <c r="T37" s="14">
+      <c r="U37" s="14">
         <v>600010201</v>
       </c>
-      <c r="U37" s="14"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
     </row>
-    <row r="38" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF735CB-C71F-4BEB-8BDA-E2928C6C2DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93DFAF-37B4-4D9F-B181-F99BD96A3E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -472,6 +472,9 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerous_2</t>
   </si>
 </sst>
 </file>
@@ -746,46 +749,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1081,6 +1044,46 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
@@ -1227,17 +1230,17 @@
       <xmlColumnPr mapId="3" xpath="/DateArea/date/@ItemName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="4" name="Music" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{DE311879-3AF7-423D-868C-4DFAA6F6A5C0}" uniqueName="15" name="LoadingRes" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{DE311879-3AF7-423D-868C-4DFAA6F6A5C0}" uniqueName="15" name="LoadingRes" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="5" name="InitSize" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="6" name="StartArea" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="7" name="EndArea" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="8" name="StopArea" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="9" name="SpecialRoomPro" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="10" name="SpecialRoom" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="11" name="StopAreaNum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="12" name="RandomArea" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="13" name="EnterLv" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="14" name="BossIcon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1532,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1764,7 +1767,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G6" s="23">
         <v>101</v>
@@ -1832,7 +1835,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G7" s="23">
         <v>102</v>
@@ -1900,7 +1903,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G8" s="23">
         <v>103</v>
@@ -1968,7 +1971,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G9" s="23">
         <v>104</v>
@@ -2036,7 +2039,7 @@
         <v>58</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G10" s="23">
         <v>105</v>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93DFAF-37B4-4D9F-B181-F99BD96A3E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091362F1-E5BD-49AB-8D98-13A98D730BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -475,6 +475,10 @@
   </si>
   <si>
     <t>dangerous_2</t>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1535,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1785,7 +1789,7 @@
         <v>1006</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>47</v>
@@ -1853,7 +1857,7 @@
         <v>1006</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>47</v>
@@ -1921,7 +1925,7 @@
         <v>1006</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>47</v>
@@ -1989,7 +1993,7 @@
         <v>1006</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>47</v>
@@ -2057,7 +2061,7 @@
         <v>1006</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>47</v>

--- a/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellGenerateConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091362F1-E5BD-49AB-8D98-13A98D730BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC5BCF7-671F-43AC-9821-2859445F0335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -478,6 +478,10 @@
   </si>
   <si>
     <t>0,0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛?</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1540,7 +1544,7 @@
   <dimension ref="C3:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1807,7 +1811,7 @@
         <v>70001910</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="S6" s="9">
         <v>1418</v>
@@ -1875,7 +1879,7 @@
         <v>70001910</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="S7" s="9">
         <v>1418</v>
@@ -1943,7 +1947,7 @@
         <v>70001910</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="S8" s="9">
         <v>1418</v>
@@ -2011,7 +2015,7 @@
         <v>70001910</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="S9" s="9">
         <v>1418</v>
@@ -2079,7 +2083,7 @@
         <v>70001910</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="S10" s="9">
         <v>1418</v>
